--- a/config/data/剧情战斗配置.xlsx
+++ b/config/data/剧情战斗配置.xlsx
@@ -438,12 +438,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="R3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>TK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+关卡战星总数</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="210">
   <si>
     <t>comment</t>
   </si>
@@ -1353,6 +1377,10 @@
   <si>
     <t>这次,我要做英雄!</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>star</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1863,10 +1891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1881,7 +1909,7 @@
     <col min="14" max="14" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1889,13 +1917,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="10"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1">
+    <row r="3" spans="1:18" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1947,8 +1975,11 @@
       <c r="Q3" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1997,8 +2028,11 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="B5">
         <v>2</v>
       </c>
@@ -2047,8 +2081,11 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="B6">
         <v>3</v>
       </c>
@@ -2097,8 +2134,11 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="B7">
         <v>4</v>
       </c>
@@ -2147,8 +2187,11 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="B8">
         <v>5</v>
       </c>
@@ -2197,8 +2240,11 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="B9">
         <v>6</v>
       </c>
@@ -2247,8 +2293,11 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="B10">
         <v>7</v>
       </c>
@@ -2297,8 +2346,11 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="B11">
         <v>8</v>
       </c>
@@ -2347,8 +2399,11 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="B12">
         <v>9</v>
       </c>
@@ -2397,8 +2452,11 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="B13">
         <v>10</v>
       </c>
@@ -2447,8 +2505,11 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="B14">
         <v>11</v>
       </c>
@@ -2497,8 +2558,11 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="B15">
         <v>12</v>
       </c>
@@ -2547,8 +2611,11 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="B16">
         <v>13</v>
       </c>
@@ -2597,8 +2664,11 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:17">
+      <c r="R16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
       <c r="B17">
         <v>14</v>
       </c>
@@ -2647,8 +2717,11 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:17">
+      <c r="R17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
       <c r="B18">
         <v>15</v>
       </c>
@@ -2697,8 +2770,11 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:17">
+      <c r="R18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
       <c r="B19">
         <v>16</v>
       </c>
@@ -2747,8 +2823,11 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:17">
+      <c r="R19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
       <c r="B20">
         <v>17</v>
       </c>
@@ -2797,8 +2876,11 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:17">
+      <c r="R20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
       <c r="B21">
         <v>18</v>
       </c>
@@ -2847,8 +2929,11 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:17">
+      <c r="R21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
       <c r="B22">
         <v>19</v>
       </c>
@@ -2897,8 +2982,11 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:17">
+      <c r="R22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
       <c r="B23">
         <v>20</v>
       </c>
@@ -2947,8 +3035,11 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:17">
+      <c r="R23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
       <c r="B24">
         <v>21</v>
       </c>
@@ -2997,8 +3088,11 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:17">
+      <c r="R24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
       <c r="B25">
         <v>22</v>
       </c>
@@ -3047,8 +3141,11 @@
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:17">
+      <c r="R25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
       <c r="B26">
         <v>23</v>
       </c>
@@ -3097,8 +3194,11 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:17">
+      <c r="R26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
       <c r="B27">
         <v>24</v>
       </c>
@@ -3147,8 +3247,11 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:17">
+      <c r="R27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
       <c r="B28">
         <v>25</v>
       </c>
@@ -3197,8 +3300,11 @@
       <c r="Q28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:17">
+      <c r="R28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
       <c r="B29">
         <v>26</v>
       </c>
@@ -3247,8 +3353,11 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:17">
+      <c r="R29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18">
       <c r="B30">
         <v>27</v>
       </c>
@@ -3297,8 +3406,11 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:17">
+      <c r="R30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
       <c r="B31">
         <v>28</v>
       </c>
@@ -3347,8 +3459,11 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:17">
+      <c r="R31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
       <c r="B32">
         <v>29</v>
       </c>
@@ -3397,8 +3512,11 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" ht="14.25" customHeight="1">
+      <c r="R32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" ht="14.25" customHeight="1">
       <c r="B33">
         <v>30</v>
       </c>
@@ -3447,8 +3565,11 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17">
+      <c r="R33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18">
       <c r="B34">
         <v>31</v>
       </c>
@@ -3497,8 +3618,11 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17">
+      <c r="R34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18">
       <c r="B35">
         <v>32</v>
       </c>
@@ -3547,8 +3671,11 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:17">
+      <c r="R35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18">
       <c r="B36">
         <v>33</v>
       </c>
@@ -3597,8 +3724,11 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17">
+      <c r="R36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18">
       <c r="B37">
         <v>34</v>
       </c>
@@ -3647,8 +3777,11 @@
       <c r="Q37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:17">
+      <c r="R37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18">
       <c r="B38">
         <v>35</v>
       </c>
@@ -3697,8 +3830,11 @@
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:17">
+      <c r="R38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18">
       <c r="B39">
         <v>36</v>
       </c>
@@ -3747,8 +3883,11 @@
       <c r="Q39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:17">
+      <c r="R39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18">
       <c r="B40">
         <v>37</v>
       </c>
@@ -3797,8 +3936,11 @@
       <c r="Q40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:17">
+      <c r="R40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18">
       <c r="B41">
         <v>38</v>
       </c>
@@ -3847,8 +3989,11 @@
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17">
+      <c r="R41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18">
       <c r="B42">
         <v>39</v>
       </c>
@@ -3897,8 +4042,11 @@
       <c r="Q42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17">
+      <c r="R42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18">
       <c r="B43">
         <v>40</v>
       </c>
@@ -3947,8 +4095,11 @@
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17">
+      <c r="R43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18">
       <c r="B44">
         <v>41</v>
       </c>
@@ -3997,8 +4148,11 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17">
+      <c r="R44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18">
       <c r="B45">
         <v>42</v>
       </c>
@@ -4047,8 +4201,11 @@
       <c r="Q45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17">
+      <c r="R45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18">
       <c r="B46">
         <v>43</v>
       </c>
@@ -4097,8 +4254,11 @@
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17">
+      <c r="R46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18">
       <c r="B47">
         <v>44</v>
       </c>
@@ -4147,8 +4307,11 @@
       <c r="Q47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17">
+      <c r="R47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18">
       <c r="B48">
         <v>45</v>
       </c>
@@ -4197,8 +4360,11 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:17">
+      <c r="R48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18">
       <c r="B49">
         <v>46</v>
       </c>
@@ -4247,8 +4413,11 @@
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:17">
+      <c r="R49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18">
       <c r="B50">
         <v>47</v>
       </c>
@@ -4297,8 +4466,11 @@
       <c r="Q50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:17">
+      <c r="R50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18">
       <c r="B51">
         <v>48</v>
       </c>
@@ -4347,8 +4519,11 @@
       <c r="Q51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:17">
+      <c r="R51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18">
       <c r="B52">
         <v>49</v>
       </c>
@@ -4397,8 +4572,11 @@
       <c r="Q52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:17">
+      <c r="R52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18">
       <c r="B53">
         <v>50</v>
       </c>
@@ -4447,8 +4625,11 @@
       <c r="Q53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:17">
+      <c r="R53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18">
       <c r="B54">
         <v>51</v>
       </c>
@@ -4497,8 +4678,11 @@
       <c r="Q54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:17">
+      <c r="R54">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18">
       <c r="B55">
         <v>52</v>
       </c>
@@ -4547,8 +4731,11 @@
       <c r="Q55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:17">
+      <c r="R55">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18">
       <c r="B56">
         <v>53</v>
       </c>
@@ -4597,8 +4784,11 @@
       <c r="Q56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:17">
+      <c r="R56">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18">
       <c r="B57">
         <v>54</v>
       </c>
@@ -4647,8 +4837,11 @@
       <c r="Q57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:17">
+      <c r="R57">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18">
       <c r="B58">
         <v>55</v>
       </c>
@@ -4697,8 +4890,11 @@
       <c r="Q58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:17">
+      <c r="R58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18">
       <c r="B59">
         <v>56</v>
       </c>
@@ -4747,8 +4943,11 @@
       <c r="Q59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:17">
+      <c r="R59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18">
       <c r="B60">
         <v>57</v>
       </c>
@@ -4797,8 +4996,11 @@
       <c r="Q60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:17">
+      <c r="R60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18">
       <c r="B61">
         <v>58</v>
       </c>
@@ -4847,8 +5049,11 @@
       <c r="Q61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:17">
+      <c r="R61">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18">
       <c r="B62">
         <v>59</v>
       </c>
@@ -4897,8 +5102,11 @@
       <c r="Q62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:17">
+      <c r="R62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18">
       <c r="B63">
         <v>60</v>
       </c>
@@ -4947,8 +5155,11 @@
       <c r="Q63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:17">
+      <c r="R63">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18">
       <c r="B64">
         <v>61</v>
       </c>
@@ -4997,8 +5208,11 @@
       <c r="Q64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17">
+      <c r="R64">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18">
       <c r="B65">
         <v>62</v>
       </c>
@@ -5047,8 +5261,11 @@
       <c r="Q65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17">
+      <c r="R65">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18">
       <c r="B66">
         <v>63</v>
       </c>
@@ -5097,8 +5314,11 @@
       <c r="Q66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:17">
+      <c r="R66">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18">
       <c r="B67">
         <v>64</v>
       </c>
@@ -5147,8 +5367,11 @@
       <c r="Q67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:17">
+      <c r="R67">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18">
       <c r="B68">
         <v>65</v>
       </c>
@@ -5197,8 +5420,11 @@
       <c r="Q68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17">
+      <c r="R68">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18">
       <c r="B69">
         <v>66</v>
       </c>
@@ -5247,8 +5473,11 @@
       <c r="Q69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17">
+      <c r="R69">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18">
       <c r="B70">
         <v>67</v>
       </c>
@@ -5297,8 +5526,11 @@
       <c r="Q70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17">
+      <c r="R70">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18">
       <c r="B71">
         <v>68</v>
       </c>
@@ -5347,8 +5579,11 @@
       <c r="Q71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17">
+      <c r="R71">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18">
       <c r="B72">
         <v>69</v>
       </c>
@@ -5397,8 +5632,11 @@
       <c r="Q72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17">
+      <c r="R72">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18">
       <c r="B73">
         <v>70</v>
       </c>
@@ -5447,8 +5685,11 @@
       <c r="Q73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17">
+      <c r="R73">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18">
       <c r="B74">
         <v>71</v>
       </c>
@@ -5497,8 +5738,11 @@
       <c r="Q74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17">
+      <c r="R74">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18">
       <c r="B75">
         <v>72</v>
       </c>
@@ -5547,8 +5791,11 @@
       <c r="Q75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17">
+      <c r="R75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18">
       <c r="B76">
         <v>73</v>
       </c>
@@ -5597,8 +5844,11 @@
       <c r="Q76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:17">
+      <c r="R76">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18">
       <c r="B77">
         <v>74</v>
       </c>
@@ -5647,8 +5897,11 @@
       <c r="Q77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:17">
+      <c r="R77">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18">
       <c r="B78">
         <v>75</v>
       </c>
@@ -5697,8 +5950,11 @@
       <c r="Q78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17">
+      <c r="R78">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18">
       <c r="B79">
         <v>76</v>
       </c>
@@ -5747,8 +6003,11 @@
       <c r="Q79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:17">
+      <c r="R79">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18">
       <c r="B80">
         <v>77</v>
       </c>
@@ -5797,8 +6056,11 @@
       <c r="Q80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:17">
+      <c r="R80">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18">
       <c r="B81">
         <v>78</v>
       </c>
@@ -5847,8 +6109,11 @@
       <c r="Q81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:17">
+      <c r="R81">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18">
       <c r="B82">
         <v>79</v>
       </c>
@@ -5897,8 +6162,11 @@
       <c r="Q82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:17">
+      <c r="R82">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18">
       <c r="B83">
         <v>80</v>
       </c>
@@ -5947,8 +6215,11 @@
       <c r="Q83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:17">
+      <c r="R83">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18">
       <c r="B84">
         <v>81</v>
       </c>
@@ -5997,8 +6268,11 @@
       <c r="Q84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:17">
+      <c r="R84">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18">
       <c r="B85">
         <v>82</v>
       </c>
@@ -6047,8 +6321,11 @@
       <c r="Q85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:17">
+      <c r="R85">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="2:18">
       <c r="B86">
         <v>83</v>
       </c>
@@ -6097,8 +6374,11 @@
       <c r="Q86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:17">
+      <c r="R86">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18">
       <c r="B87">
         <v>84</v>
       </c>
@@ -6147,8 +6427,11 @@
       <c r="Q87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:17">
+      <c r="R87">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18">
       <c r="B88">
         <v>85</v>
       </c>
@@ -6197,8 +6480,11 @@
       <c r="Q88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:17">
+      <c r="R88">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="2:18">
       <c r="B89">
         <v>86</v>
       </c>
@@ -6247,8 +6533,11 @@
       <c r="Q89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:17">
+      <c r="R89">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18">
       <c r="B90">
         <v>87</v>
       </c>
@@ -6297,8 +6586,11 @@
       <c r="Q90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:17">
+      <c r="R90">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="2:18">
       <c r="B91">
         <v>88</v>
       </c>
@@ -6347,8 +6639,11 @@
       <c r="Q91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:17">
+      <c r="R91">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18">
       <c r="B92">
         <v>89</v>
       </c>
@@ -6397,8 +6692,11 @@
       <c r="Q92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:17">
+      <c r="R92">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="2:18">
       <c r="B93">
         <v>90</v>
       </c>
@@ -6446,6 +6744,9 @@
       </c>
       <c r="Q93">
         <v>0</v>
+      </c>
+      <c r="R93">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/config/data/剧情战斗配置.xlsx
+++ b/config/data/剧情战斗配置.xlsx
@@ -63,7 +63,7 @@
             <charset val="134"/>
           </rPr>
           <t>是否需要怒气：不填或0没有
-填1有怒气功能</t>
+填30有怒气功能</t>
         </r>
       </text>
     </comment>
@@ -462,12 +462,55 @@
         </r>
       </text>
     </comment>
+    <comment ref="K83" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>barry:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+&gt;=6000</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>boss</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="209">
   <si>
     <t>comment</t>
   </si>
@@ -1337,10 +1380,6 @@
   <si>
     <t>让家,远离战火..</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>望眼自己的农场,悠然满足,活动一下</t>
@@ -1893,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1976,7 +2015,7 @@
         <v>21</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2017,7 +2056,7 @@
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O4" s="7">
         <v>100000</v>
@@ -2070,7 +2109,7 @@
         <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O5" s="7">
         <v>150000</v>
@@ -2123,7 +2162,7 @@
         <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O6" s="7">
         <v>200000</v>
@@ -2335,7 +2374,7 @@
         <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O10" s="7">
         <v>250000</v>
@@ -2464,7 +2503,7 @@
         <v>2000</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>900</v>
@@ -2994,7 +3033,7 @@
         <v>2000</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>2700</v>
@@ -3183,7 +3222,7 @@
         <v>64</v>
       </c>
       <c r="N26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O26" s="7">
         <v>600000</v>
@@ -3448,7 +3487,7 @@
         <v>73</v>
       </c>
       <c r="N31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O31" s="7">
         <v>700000</v>
@@ -3524,7 +3563,7 @@
         <v>2000</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E33">
         <v>200</v>
@@ -4054,7 +4093,7 @@
         <v>2000</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E43">
         <v>200</v>
@@ -4137,7 +4176,7 @@
         <v>99</v>
       </c>
       <c r="N44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O44">
         <v>950000</v>
@@ -4349,7 +4388,7 @@
         <v>106</v>
       </c>
       <c r="N48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O48">
         <v>1000000</v>
@@ -4584,7 +4623,7 @@
         <v>2000</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E53">
         <v>200</v>
@@ -5114,7 +5153,7 @@
         <v>2000</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E63">
         <v>200</v>
@@ -5644,7 +5683,7 @@
         <v>2000</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E73">
         <v>200</v>
@@ -6174,7 +6213,7 @@
         <v>2000</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E83">
         <v>200</v>
@@ -6194,8 +6233,8 @@
       <c r="J83">
         <v>30001</v>
       </c>
-      <c r="K83" s="7" t="s">
-        <v>199</v>
+      <c r="K83" s="7">
+        <v>6000</v>
       </c>
       <c r="L83" t="s">
         <v>158</v>
@@ -6628,7 +6667,7 @@
         <v>194</v>
       </c>
       <c r="N91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O91">
         <v>1900000</v>
@@ -6704,7 +6743,7 @@
         <v>2000</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E93">
         <v>200</v>

--- a/config/data/剧情战斗配置.xlsx
+++ b/config/data/剧情战斗配置.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20400" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20400" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="210">
   <si>
     <t>comment</t>
   </si>
@@ -1382,18 +1382,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>望眼自己的农场,悠然满足,活动一下</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚才...好真实的幻象</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>看来每天睡23小时不够呀</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>空间防卫舰难道是摆设</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1420,13 +1408,56 @@
   <si>
     <t>star</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10001/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10003</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚才...好真实的幻象</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>望眼自己的农场,悠然满足</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>看来每天睡23小时不够呀</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1929,14 +1960,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
@@ -1948,7 +1979,7 @@
     <col min="14" max="14" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1956,13 +1987,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1">
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2015,10 +2046,10 @@
         <v>21</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1</v>
       </c>
@@ -2056,7 +2087,7 @@
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="O4" s="7">
         <v>100000</v>
@@ -2071,7 +2102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>2</v>
       </c>
@@ -2082,13 +2113,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="F5">
         <v>220</v>
       </c>
       <c r="G5">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2109,7 +2140,7 @@
         <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="O5" s="7">
         <v>150000</v>
@@ -2124,7 +2155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
@@ -2135,13 +2166,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="F6">
         <v>240</v>
       </c>
       <c r="G6">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2162,7 +2193,7 @@
         <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="O6" s="7">
         <v>200000</v>
@@ -2177,7 +2208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>4</v>
       </c>
@@ -2188,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>480</v>
+        <v>390</v>
       </c>
       <c r="F7">
         <v>260</v>
       </c>
       <c r="G7">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2230,7 +2261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>5</v>
       </c>
@@ -2241,13 +2272,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="F8">
         <v>280</v>
       </c>
       <c r="G8">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2283,7 +2314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>6</v>
       </c>
@@ -2294,13 +2325,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="F9">
         <v>300</v>
       </c>
       <c r="G9">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2336,7 +2367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>7</v>
       </c>
@@ -2347,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>660</v>
+        <v>480</v>
       </c>
       <c r="F10">
         <v>320</v>
       </c>
       <c r="G10">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2374,7 +2405,7 @@
         <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O10" s="7">
         <v>250000</v>
@@ -2389,7 +2420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>8</v>
       </c>
@@ -2400,13 +2431,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>720</v>
+        <v>510</v>
       </c>
       <c r="F11">
         <v>340</v>
       </c>
       <c r="G11">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2442,7 +2473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>9</v>
       </c>
@@ -2453,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>780</v>
+        <v>540</v>
       </c>
       <c r="F12">
         <v>360</v>
       </c>
       <c r="G12">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2495,24 +2526,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D13">
         <v>30</v>
       </c>
       <c r="E13">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F13">
         <v>400</v>
       </c>
       <c r="G13">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>14</v>
@@ -2548,7 +2579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>11</v>
       </c>
@@ -2559,13 +2590,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F14">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G14">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2601,7 +2632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>12</v>
       </c>
@@ -2612,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1080</v>
+        <v>800</v>
       </c>
       <c r="F15">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="G15">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2654,7 +2685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>13</v>
       </c>
@@ -2665,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="F16">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="G16">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2707,7 +2738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>14</v>
       </c>
@@ -2718,13 +2749,13 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1440</v>
+        <v>1000</v>
       </c>
       <c r="F17">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="G17">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2760,7 +2791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>15</v>
       </c>
@@ -2771,13 +2802,13 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1620</v>
+        <v>1100</v>
       </c>
       <c r="F18">
-        <v>560</v>
+        <v>900</v>
       </c>
       <c r="G18">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2813,7 +2844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>16</v>
       </c>
@@ -2824,13 +2855,13 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F19">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G19">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2866,7 +2897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>17</v>
       </c>
@@ -2877,13 +2908,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1980</v>
+        <v>1300</v>
       </c>
       <c r="F20">
-        <v>640</v>
+        <v>1100</v>
       </c>
       <c r="G20">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2919,7 +2950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>18</v>
       </c>
@@ -2930,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2160</v>
+        <v>1400</v>
       </c>
       <c r="F21">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="G21">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2972,7 +3003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>19</v>
       </c>
@@ -2983,13 +3014,13 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2340</v>
+        <v>1500</v>
       </c>
       <c r="F22">
-        <v>720</v>
+        <v>1300</v>
       </c>
       <c r="G22">
-        <v>39000</v>
+        <v>19000</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3025,24 +3056,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>20</v>
       </c>
       <c r="C23">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D23">
         <v>30</v>
       </c>
       <c r="E23">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="F23">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="G23">
-        <v>45000</v>
+        <v>21000</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>14</v>
@@ -3078,7 +3109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>21</v>
       </c>
@@ -3089,13 +3120,13 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>200</v>
+        <v>1900</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>1700</v>
       </c>
       <c r="G24">
-        <v>5000</v>
+        <v>22500</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3131,7 +3162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>22</v>
       </c>
@@ -3142,13 +3173,13 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>200</v>
+        <v>2100</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>1900</v>
       </c>
       <c r="G25">
-        <v>5000</v>
+        <v>24000</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -3184,7 +3215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>23</v>
       </c>
@@ -3195,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>200</v>
+        <v>2300</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>2100</v>
       </c>
       <c r="G26">
-        <v>5000</v>
+        <v>25500</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -3222,7 +3253,7 @@
         <v>64</v>
       </c>
       <c r="N26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O26" s="7">
         <v>600000</v>
@@ -3237,7 +3268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B27">
         <v>24</v>
       </c>
@@ -3248,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>2300</v>
       </c>
       <c r="G27">
-        <v>5000</v>
+        <v>27000</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3290,7 +3321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>25</v>
       </c>
@@ -3301,13 +3332,13 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>200</v>
+        <v>2700</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>2500</v>
       </c>
       <c r="G28">
-        <v>5000</v>
+        <v>28500</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3343,7 +3374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>26</v>
       </c>
@@ -3354,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>200</v>
+        <v>2900</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>2700</v>
       </c>
       <c r="G29">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3396,7 +3427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>27</v>
       </c>
@@ -3407,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>200</v>
+        <v>3100</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>2900</v>
       </c>
       <c r="G30">
-        <v>5000</v>
+        <v>31500</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3449,7 +3480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>28</v>
       </c>
@@ -3460,13 +3491,13 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>200</v>
+        <v>3300</v>
       </c>
       <c r="F31">
-        <v>10</v>
+        <v>3100</v>
       </c>
       <c r="G31">
-        <v>5000</v>
+        <v>33000</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3487,7 +3518,7 @@
         <v>73</v>
       </c>
       <c r="N31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O31" s="7">
         <v>700000</v>
@@ -3502,7 +3533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>29</v>
       </c>
@@ -3513,13 +3544,13 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>200</v>
+        <v>3500</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>3300</v>
       </c>
       <c r="G32">
-        <v>5000</v>
+        <v>34500</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3555,24 +3586,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:18" ht="14.25" customHeight="1">
+    <row r="33" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33">
         <v>30</v>
       </c>
       <c r="C33">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D33">
         <v>30</v>
       </c>
       <c r="E33">
-        <v>200</v>
+        <v>3800</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>3600</v>
       </c>
       <c r="G33">
-        <v>5000</v>
+        <v>36000</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>14</v>
@@ -3608,7 +3639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:18">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>31</v>
       </c>
@@ -3619,13 +3650,13 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>3700</v>
       </c>
       <c r="G34">
-        <v>5000</v>
+        <v>38000</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3661,7 +3692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:18">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B35">
         <v>32</v>
       </c>
@@ -3672,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>200</v>
+        <v>4200</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>3700</v>
       </c>
       <c r="G35">
-        <v>5000</v>
+        <v>40000</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3714,7 +3745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>33</v>
       </c>
@@ -3725,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>200</v>
+        <v>4400</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>3700</v>
       </c>
       <c r="G36">
-        <v>5000</v>
+        <v>42000</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3767,7 +3798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:18">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B37">
         <v>34</v>
       </c>
@@ -3778,13 +3809,13 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>200</v>
+        <v>4600</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>3700</v>
       </c>
       <c r="G37">
-        <v>5000</v>
+        <v>44000</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3820,7 +3851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:18">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>35</v>
       </c>
@@ -3831,13 +3862,13 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>200</v>
+        <v>4800</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>3700</v>
       </c>
       <c r="G38">
-        <v>5000</v>
+        <v>46000</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3873,7 +3904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:18">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B39">
         <v>36</v>
       </c>
@@ -3884,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>3800</v>
       </c>
       <c r="G39">
-        <v>5000</v>
+        <v>48000</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3926,7 +3957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:18">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B40">
         <v>37</v>
       </c>
@@ -3937,13 +3968,13 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>200</v>
+        <v>5200</v>
       </c>
       <c r="F40">
-        <v>10</v>
+        <v>3800</v>
       </c>
       <c r="G40">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3979,7 +4010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>38</v>
       </c>
@@ -3990,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>200</v>
+        <v>5400</v>
       </c>
       <c r="F41">
-        <v>10</v>
+        <v>3800</v>
       </c>
       <c r="G41">
-        <v>5000</v>
+        <v>52000</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4032,7 +4063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:18">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B42">
         <v>39</v>
       </c>
@@ -4043,13 +4074,13 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>200</v>
+        <v>5600</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>3800</v>
       </c>
       <c r="G42">
-        <v>5000</v>
+        <v>54000</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4085,24 +4116,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B43">
         <v>40</v>
       </c>
       <c r="C43">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D43">
         <v>30</v>
       </c>
       <c r="E43">
-        <v>200</v>
+        <v>6000</v>
       </c>
       <c r="F43">
-        <v>10</v>
+        <v>3800</v>
       </c>
       <c r="G43">
-        <v>5000</v>
+        <v>57000</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>14</v>
@@ -4138,7 +4169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>41</v>
       </c>
@@ -4149,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>200</v>
+        <v>6100</v>
       </c>
       <c r="F44">
-        <v>10</v>
+        <v>4000</v>
       </c>
       <c r="G44">
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4176,7 +4207,7 @@
         <v>99</v>
       </c>
       <c r="N44" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O44">
         <v>950000</v>
@@ -4191,7 +4222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="2:18">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B45">
         <v>42</v>
       </c>
@@ -4202,13 +4233,13 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>200</v>
+        <v>6200</v>
       </c>
       <c r="F45">
-        <v>10</v>
+        <v>4300</v>
       </c>
       <c r="G45">
-        <v>5000</v>
+        <v>63000</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4244,7 +4275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="2:18">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B46">
         <v>43</v>
       </c>
@@ -4255,13 +4286,13 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>200</v>
+        <v>6300</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>4600</v>
       </c>
       <c r="G46">
-        <v>5000</v>
+        <v>66000</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4297,7 +4328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:18">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B47">
         <v>44</v>
       </c>
@@ -4308,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>200</v>
+        <v>6400</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>4900</v>
       </c>
       <c r="G47">
-        <v>5000</v>
+        <v>69000</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4350,7 +4381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="2:18">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B48">
         <v>45</v>
       </c>
@@ -4361,13 +4392,13 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>200</v>
+        <v>6500</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>5200</v>
       </c>
       <c r="G48">
-        <v>5000</v>
+        <v>72000</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4388,7 +4419,7 @@
         <v>106</v>
       </c>
       <c r="N48" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O48">
         <v>1000000</v>
@@ -4403,7 +4434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="2:18">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B49">
         <v>46</v>
       </c>
@@ -4414,13 +4445,13 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>200</v>
+        <v>6600</v>
       </c>
       <c r="F49">
-        <v>10</v>
+        <v>5500</v>
       </c>
       <c r="G49">
-        <v>5000</v>
+        <v>75000</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4456,7 +4487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="2:18">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B50">
         <v>47</v>
       </c>
@@ -4467,13 +4498,13 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>200</v>
+        <v>6700</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>5800</v>
       </c>
       <c r="G50">
-        <v>5000</v>
+        <v>78000</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4509,7 +4540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="2:18">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B51">
         <v>48</v>
       </c>
@@ -4520,13 +4551,13 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>200</v>
+        <v>6800</v>
       </c>
       <c r="F51">
-        <v>10</v>
+        <v>6100</v>
       </c>
       <c r="G51">
-        <v>5000</v>
+        <v>81000</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4562,7 +4593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="2:18">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B52">
         <v>49</v>
       </c>
@@ -4573,13 +4604,13 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>200</v>
+        <v>6900</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>6400</v>
       </c>
       <c r="G52">
-        <v>5000</v>
+        <v>84000</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -4615,24 +4646,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="2:18">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B53">
         <v>50</v>
       </c>
       <c r="C53">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D53">
         <v>30</v>
       </c>
       <c r="E53">
-        <v>200</v>
+        <v>7000</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>6800</v>
       </c>
       <c r="G53">
-        <v>5000</v>
+        <v>90000</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>14</v>
@@ -4668,7 +4699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="2:18">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B54">
         <v>51</v>
       </c>
@@ -4679,13 +4710,13 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>200</v>
+        <v>7200</v>
       </c>
       <c r="F54">
-        <v>10</v>
+        <v>7100</v>
       </c>
       <c r="G54">
-        <v>5000</v>
+        <v>94000</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -4721,7 +4752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:18">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B55">
         <v>52</v>
       </c>
@@ -4732,13 +4763,13 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>200</v>
+        <v>7400</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>7400</v>
       </c>
       <c r="G55">
-        <v>5000</v>
+        <v>98000</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -4774,7 +4805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:18">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B56">
         <v>53</v>
       </c>
@@ -4785,13 +4816,13 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>200</v>
+        <v>7600</v>
       </c>
       <c r="F56">
-        <v>10</v>
+        <v>7700</v>
       </c>
       <c r="G56">
-        <v>5000</v>
+        <v>102000</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -4827,7 +4858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="2:18">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B57">
         <v>54</v>
       </c>
@@ -4838,13 +4869,13 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>200</v>
+        <v>7800</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>8000</v>
       </c>
       <c r="G57">
-        <v>5000</v>
+        <v>106000</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -4880,7 +4911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:18">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B58">
         <v>55</v>
       </c>
@@ -4891,13 +4922,13 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>8300</v>
       </c>
       <c r="G58">
-        <v>5000</v>
+        <v>110000</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -4933,7 +4964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="2:18">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B59">
         <v>56</v>
       </c>
@@ -4944,13 +4975,13 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>200</v>
+        <v>8200</v>
       </c>
       <c r="F59">
-        <v>10</v>
+        <v>8700</v>
       </c>
       <c r="G59">
-        <v>5000</v>
+        <v>114000</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -4986,7 +5017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="2:18">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B60">
         <v>57</v>
       </c>
@@ -4997,13 +5028,13 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>200</v>
+        <v>8400</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>9000</v>
       </c>
       <c r="G60">
-        <v>5000</v>
+        <v>118000</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5039,7 +5070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="2:18">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B61">
         <v>58</v>
       </c>
@@ -5050,13 +5081,13 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>200</v>
+        <v>8600</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>9300</v>
       </c>
       <c r="G61">
-        <v>5000</v>
+        <v>122000</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5092,7 +5123,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="2:18">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B62">
         <v>59</v>
       </c>
@@ -5103,13 +5134,13 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>200</v>
+        <v>8800</v>
       </c>
       <c r="F62">
-        <v>10</v>
+        <v>9600</v>
       </c>
       <c r="G62">
-        <v>5000</v>
+        <v>126000</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -5145,27 +5176,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:18">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B63">
         <v>60</v>
       </c>
       <c r="C63">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D63">
         <v>30</v>
       </c>
       <c r="E63">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="F63">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G63">
-        <v>5000</v>
+        <v>130000</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>15</v>
@@ -5198,7 +5229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:18">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B64">
         <v>61</v>
       </c>
@@ -5209,13 +5240,13 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>200</v>
+        <v>9300</v>
       </c>
       <c r="F64">
-        <v>10</v>
+        <v>10200</v>
       </c>
       <c r="G64">
-        <v>5000</v>
+        <v>135000</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -5251,7 +5282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="2:18">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B65">
         <v>62</v>
       </c>
@@ -5262,13 +5293,13 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>200</v>
+        <v>9600</v>
       </c>
       <c r="F65">
-        <v>10</v>
+        <v>10400</v>
       </c>
       <c r="G65">
-        <v>5000</v>
+        <v>140000</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -5304,7 +5335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="2:18">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B66">
         <v>63</v>
       </c>
@@ -5315,13 +5346,13 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>200</v>
+        <v>9900</v>
       </c>
       <c r="F66">
-        <v>10</v>
+        <v>10600</v>
       </c>
       <c r="G66">
-        <v>5000</v>
+        <v>145000</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -5357,7 +5388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="2:18">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B67">
         <v>64</v>
       </c>
@@ -5368,13 +5399,13 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>200</v>
+        <v>10200</v>
       </c>
       <c r="F67">
-        <v>10</v>
+        <v>10800</v>
       </c>
       <c r="G67">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -5410,7 +5441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="2:18">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B68">
         <v>65</v>
       </c>
@@ -5421,13 +5452,13 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>200</v>
+        <v>10500</v>
       </c>
       <c r="F68">
-        <v>10</v>
+        <v>11000</v>
       </c>
       <c r="G68">
-        <v>5000</v>
+        <v>155000</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -5463,7 +5494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="2:18">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B69">
         <v>66</v>
       </c>
@@ -5474,13 +5505,13 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>200</v>
+        <v>10800</v>
       </c>
       <c r="F69">
-        <v>10</v>
+        <v>11200</v>
       </c>
       <c r="G69">
-        <v>5000</v>
+        <v>160000</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -5516,7 +5547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="2:18">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B70">
         <v>67</v>
       </c>
@@ -5527,13 +5558,13 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>200</v>
+        <v>11100</v>
       </c>
       <c r="F70">
-        <v>10</v>
+        <v>11400</v>
       </c>
       <c r="G70">
-        <v>5000</v>
+        <v>165000</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -5569,7 +5600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="2:18">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B71">
         <v>68</v>
       </c>
@@ -5580,13 +5611,13 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>200</v>
+        <v>11400</v>
       </c>
       <c r="F71">
-        <v>10</v>
+        <v>11600</v>
       </c>
       <c r="G71">
-        <v>5000</v>
+        <v>170000</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -5622,7 +5653,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="2:18">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B72">
         <v>69</v>
       </c>
@@ -5633,13 +5664,13 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>200</v>
+        <v>11700</v>
       </c>
       <c r="F72">
-        <v>10</v>
+        <v>11800</v>
       </c>
       <c r="G72">
-        <v>5000</v>
+        <v>175000</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -5675,24 +5706,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="2:18">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B73">
         <v>70</v>
       </c>
       <c r="C73">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D73">
         <v>30</v>
       </c>
       <c r="E73">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="F73">
-        <v>10</v>
+        <v>12000</v>
       </c>
       <c r="G73">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>14</v>
@@ -5728,7 +5759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="2:18">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B74">
         <v>71</v>
       </c>
@@ -5739,13 +5770,13 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>200</v>
+        <v>12300</v>
       </c>
       <c r="F74">
-        <v>10</v>
+        <v>12200</v>
       </c>
       <c r="G74">
-        <v>5000</v>
+        <v>190000</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -5781,7 +5812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="2:18">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B75">
         <v>72</v>
       </c>
@@ -5792,13 +5823,13 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>200</v>
+        <v>12600</v>
       </c>
       <c r="F75">
-        <v>10</v>
+        <v>12400</v>
       </c>
       <c r="G75">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -5834,7 +5865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="2:18">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B76">
         <v>73</v>
       </c>
@@ -5845,13 +5876,13 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>200</v>
+        <v>12900</v>
       </c>
       <c r="F76">
-        <v>10</v>
+        <v>12600</v>
       </c>
       <c r="G76">
-        <v>5000</v>
+        <v>210000</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -5887,7 +5918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="2:18">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B77">
         <v>74</v>
       </c>
@@ -5898,13 +5929,13 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>200</v>
+        <v>13200</v>
       </c>
       <c r="F77">
-        <v>10</v>
+        <v>12800</v>
       </c>
       <c r="G77">
-        <v>5000</v>
+        <v>220000</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -5940,7 +5971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="2:18">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B78">
         <v>75</v>
       </c>
@@ -5951,13 +5982,13 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>200</v>
+        <v>13500</v>
       </c>
       <c r="F78">
-        <v>10</v>
+        <v>13000</v>
       </c>
       <c r="G78">
-        <v>5000</v>
+        <v>230000</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -5993,7 +6024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="2:18">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B79">
         <v>76</v>
       </c>
@@ -6004,13 +6035,13 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>200</v>
+        <v>13800</v>
       </c>
       <c r="F79">
-        <v>10</v>
+        <v>13200</v>
       </c>
       <c r="G79">
-        <v>5000</v>
+        <v>240000</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -6046,7 +6077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="2:18">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B80">
         <v>77</v>
       </c>
@@ -6057,13 +6088,13 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>200</v>
+        <v>14100</v>
       </c>
       <c r="F80">
-        <v>10</v>
+        <v>13400</v>
       </c>
       <c r="G80">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -6099,7 +6130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="2:18">
+    <row r="81" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B81">
         <v>78</v>
       </c>
@@ -6110,13 +6141,13 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>200</v>
+        <v>14400</v>
       </c>
       <c r="F81">
-        <v>10</v>
+        <v>13600</v>
       </c>
       <c r="G81">
-        <v>5000</v>
+        <v>260000</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -6152,7 +6183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="2:18">
+    <row r="82" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B82">
         <v>79</v>
       </c>
@@ -6163,13 +6194,13 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>200</v>
+        <v>14700</v>
       </c>
       <c r="F82">
-        <v>10</v>
+        <v>13800</v>
       </c>
       <c r="G82">
-        <v>5000</v>
+        <v>270000</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -6205,24 +6236,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="2:18">
+    <row r="83" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B83">
         <v>80</v>
       </c>
       <c r="C83">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D83">
         <v>30</v>
       </c>
       <c r="E83">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="F83">
-        <v>10</v>
+        <v>14000</v>
       </c>
       <c r="G83">
-        <v>5000</v>
+        <v>280000</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>14</v>
@@ -6258,7 +6289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="2:18">
+    <row r="84" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B84">
         <v>81</v>
       </c>
@@ -6269,13 +6300,13 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>200</v>
+        <v>15300</v>
       </c>
       <c r="F84">
-        <v>10</v>
+        <v>14300</v>
       </c>
       <c r="G84">
-        <v>5000</v>
+        <v>290000</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -6311,7 +6342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="2:18">
+    <row r="85" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B85">
         <v>82</v>
       </c>
@@ -6322,13 +6353,13 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>200</v>
+        <v>15600</v>
       </c>
       <c r="F85">
-        <v>10</v>
+        <v>14600</v>
       </c>
       <c r="G85">
-        <v>5000</v>
+        <v>300000</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -6364,7 +6395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="2:18">
+    <row r="86" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B86">
         <v>83</v>
       </c>
@@ -6375,13 +6406,13 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>200</v>
+        <v>15900</v>
       </c>
       <c r="F86">
-        <v>10</v>
+        <v>14900</v>
       </c>
       <c r="G86">
-        <v>5000</v>
+        <v>310000</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -6417,7 +6448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="2:18">
+    <row r="87" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B87">
         <v>84</v>
       </c>
@@ -6428,13 +6459,13 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>200</v>
+        <v>16200</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>15200</v>
       </c>
       <c r="G87">
-        <v>5000</v>
+        <v>320000</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -6470,7 +6501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="2:18">
+    <row r="88" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B88">
         <v>85</v>
       </c>
@@ -6481,13 +6512,13 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>200</v>
+        <v>16500</v>
       </c>
       <c r="F88">
-        <v>10</v>
+        <v>15500</v>
       </c>
       <c r="G88">
-        <v>5000</v>
+        <v>330000</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -6523,7 +6554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="2:18">
+    <row r="89" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B89">
         <v>86</v>
       </c>
@@ -6534,13 +6565,13 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>200</v>
+        <v>16800</v>
       </c>
       <c r="F89">
-        <v>10</v>
+        <v>15800</v>
       </c>
       <c r="G89">
-        <v>5000</v>
+        <v>340000</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -6576,7 +6607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="2:18">
+    <row r="90" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B90">
         <v>87</v>
       </c>
@@ -6587,13 +6618,13 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>200</v>
+        <v>17100</v>
       </c>
       <c r="F90">
-        <v>10</v>
+        <v>16100</v>
       </c>
       <c r="G90">
-        <v>5000</v>
+        <v>350000</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -6629,7 +6660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="2:18">
+    <row r="91" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B91">
         <v>88</v>
       </c>
@@ -6640,13 +6671,13 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>200</v>
+        <v>17400</v>
       </c>
       <c r="F91">
-        <v>10</v>
+        <v>16400</v>
       </c>
       <c r="G91">
-        <v>5000</v>
+        <v>360000</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -6667,7 +6698,7 @@
         <v>194</v>
       </c>
       <c r="N91" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O91">
         <v>1900000</v>
@@ -6682,7 +6713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="2:18">
+    <row r="92" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B92">
         <v>89</v>
       </c>
@@ -6693,13 +6724,13 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>200</v>
+        <v>17700</v>
       </c>
       <c r="F92">
-        <v>10</v>
+        <v>16700</v>
       </c>
       <c r="G92">
-        <v>5000</v>
+        <v>370000</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -6735,24 +6766,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="2:18">
+    <row r="93" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B93">
         <v>90</v>
       </c>
       <c r="C93">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D93">
         <v>30</v>
       </c>
       <c r="E93">
-        <v>200</v>
+        <v>18000</v>
       </c>
       <c r="F93">
-        <v>10</v>
+        <v>17000</v>
       </c>
       <c r="G93">
-        <v>5000</v>
+        <v>380000</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>14</v>
@@ -6801,12 +6832,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6816,12 +6847,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/config/data/剧情战斗配置.xlsx
+++ b/config/data/剧情战斗配置.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="20400" windowHeight="8430"/>
@@ -462,6 +462,1162 @@
         </r>
       </text>
     </comment>
+    <comment ref="S3" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>barry:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ai</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>等级：
+无</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:0
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>暴击率</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">30%
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>简单：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>暴击率</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">30%
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>血量</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>以上</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>攻击强化
+能量每次到达</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>15</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>点</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>有</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>30%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>几率继续积攒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>到达</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>30</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>点释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>攻击
+血量</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>以下</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>防御强化
+能量每次到达</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>15</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>点</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>有</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>30%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>几率继续积攒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>到达</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>30</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>点释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>防御
+血量在低于</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>时</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,30%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>几率召唤战舰（无能量限制</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>战舰攻击</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>次
+无论是否召唤出战舰</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">每场战斗都只判定一次
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>秒内掉血超</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">30% </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>回血（无能量限制
+难：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>暴击率</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">50%
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>血量</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>以上</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>攻击强化
+能量每次到达</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>15</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>点</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>有</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>60%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>几率继续积攒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>到达</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>30</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>点释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>攻击
+血量</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>以下</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>防御强化
+能量每次到达</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>15</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>点</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>有</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>60%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>几率继续积攒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>到达</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>30</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>点释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>防御
+血量在低于</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>时</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,60%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>几率召唤战舰（无能量限制</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>战舰攻击</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>次
+无论是否召唤出战舰</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">每场战斗都只判定一次
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>秒内掉血超</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">30% </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>回血（无能量限制</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K83" authorId="2">
       <text>
         <r>
@@ -510,7 +1666,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="213">
   <si>
     <t>comment</t>
   </si>
@@ -525,43 +1681,43 @@
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>anger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>defence</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>blood</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>skill1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>skill2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>skill3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>fightTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>atk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>res</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -592,7 +1748,7 @@
       </rPr>
       <t>10003</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -615,7 +1771,7 @@
       </rPr>
       <t>20002</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -630,7 +1786,7 @@
       </rPr>
       <t>tory0</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -645,7 +1801,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -660,754 +1816,769 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>awardCoin</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>awardMi</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>awardItem</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>序章</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宁静1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宁静2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宁静3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宁静4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>现在的生活，真不错</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宁静5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>警报..</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>第1章</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭警报,为什么现在才响</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭7</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭8</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>不对,就算被消灭,也该有能量反应的</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭9</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>以后再想这个吧,赶紧回防</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭10</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>我了个..被包围了</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭11</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>幸好经常训练,突围应该有希望</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭12</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>这些敌机型很杂乱啊,且从没见过</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭13</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>难道是外星联合入侵</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭14</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>有缺口,突围就是现在</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭15</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>好险,这个敌机不一般</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭16</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>终于冲出来了,那些杂兵是追不上的</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭17</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>我去,真是嘴欠..</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭18</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>嗯?突然发现敌机的特点</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭19</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>杂兵机上都有一个红色装置</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭20</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>强型机虽没有那个装置,但是..</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭21</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>不好,一直被纠缠,杂兵又追上了</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭22</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>哈~友军信号，太及时了</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭23</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭24</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>真是混啊,怎么攻击起我来</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭25</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>那是,跟敌机上一样的红色装置..</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭26</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>看来猜想没错,那个,是控制器</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭27</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>这下要大麻烦呀</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭28</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭29</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>真维斯!你在毛线啊,还不快点打炮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敌袭30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>终于赶回来了,启动所有机甲!!</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>第2章</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>反击31</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敢来犯我，是你们最大的错误</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>反击32</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>真维斯,向所有机甲输入一级指令</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>反击33</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>只要控制权遭到变更..立即自爆</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>反击34</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>现在,全面反击!</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>反击35</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>机甲组成攻击编队,注意控制器的偷袭</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>反击36</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>杂兵群攻消灭,强型机集中攻击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>反击37</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>至于防卫舰,有生命信号的只可击落</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>反击38</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>没有的..彻底击毁,世人会铭记他们的</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>反击39</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>拉网收“鱼”了！</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>反击40</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>新的强型机,很特殊呀</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>反击41</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>反击42</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>这样下去，机甲部队会全灭的</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>反击43</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>真维斯,让机甲组成围攻模式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>反击44</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>集中先灭了这些新型机</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>反击45</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>反击46</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>风卷残云,我的机甲部队可不是摆设</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>反击47</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>“老板~我检测到一种特殊敌机”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>反击48</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>“该机型一直高速移动于战场中”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>反击49</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>“但是从未发动过攻击..”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>反击50</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>有意思,我先收拾了强化机再灭它们</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>第3章</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情报51</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>发现了,果然怪异的敌机</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情报52</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>真维斯,你能检测出它们的结构吗</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情报53</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>“可以,但需要稳定的扫描”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情报54</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>直说需要样本呗..</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情报55</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>“需要稳定的扫描”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情报56</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>我KAO..</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情报57</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>“扫描结果,该机型为情报机”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情报58</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>“但是，并没有检测到情报”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情报59</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>“我推断,该机是直接将情报中转..”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情报60</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>我已经看到..了</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情报61</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>“检测到大量信息,但需要破解”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情报62</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>交给你了,我先..KAO好刺眼的光</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情报63</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>刚才被奇怪的光照到了,但好像没事呀</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情报64</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>买了个表..那是..我？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情报65</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>“老板,你的机甲被扫描复制了!”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情报66</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>感情你很兴奋啊..</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情报67</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>“这个技术起码先进人类几个世纪”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情报68</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>“复制体火力跟你相当，别挂了”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情报69</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>我挂之前一定先注销你..</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情报70</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>“情报解析完毕,马上传送给你”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>第4章</t>
   </si>
   <si>
     <t>危机71</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>这样下去不行,要赶快找到复制装置</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>危机72</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>“扫描到能量反应,左上方”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>危机73</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>集中攻过去,这应该是敌人最后的手段</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>危机74</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>不出意料,残余的敌机都去保护装置了</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>危机75</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>正好一锅端,结束掉这场战斗</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>危机76</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>终于结束了,先看下情报</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>危机77</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>杂兵的资料,没什么意义</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>危机78</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>强型机的资料,已经了解</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>危机79</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>复制体..打自己的感觉还真怪异</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>危机80</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>这...难道又是幻觉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>第5章</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>抉择81</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>战斗已过去,但真维斯的话却直击心头</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>抉择82</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>“敌人进攻之前,我被一股力量干扰”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>抉择83</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>“防御系统几乎崩溃”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>抉择84</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>“结合后来的战斗,我得出推断..”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>抉择85</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>“下一次,无论输赢,我们都是输”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>抉择86</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>“除非,让战场远离家园”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>抉择87</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>也许，真的是我安逸久了</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>抉择88</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>抉择89</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>与我的伙伴一起,迎战虚空</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>抉择90</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>让家,远离战火..</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>空间防卫舰难道是摆设</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>是空间防卫舰，没有被消灭</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>看到基地了,为什么还没启动防御网</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>这个火力,简直太假了..</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>一鼓作气,胜利就在眼前</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>这次,我要做英雄!</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>star</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚才...好真实的幻象</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>望眼自己的农场,悠然满足</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>看来每天睡23小时不够呀</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001/10002/10003</t>
   </si>
   <si>
     <r>
@@ -1438,30 +2609,73 @@
       </rPr>
       <t>10003</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚才...好真实的幻象</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>望眼自己的农场,悠然满足</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>看来每天睡23小时不够呀</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>ai</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1600,16 +2814,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1960,14 +3174,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
@@ -1979,7 +3193,7 @@
     <col min="14" max="14" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1987,13 +3201,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19">
       <c r="A2" s="10"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2048,8 +3262,11 @@
       <c r="R3" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S3" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="B4">
         <v>1</v>
       </c>
@@ -2066,16 +3283,16 @@
         <v>200</v>
       </c>
       <c r="G4">
-        <v>5000</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>4500</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -2087,7 +3304,7 @@
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O4" s="7">
         <v>100000</v>
@@ -2101,8 +3318,11 @@
       <c r="R4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="B5">
         <v>2</v>
       </c>
@@ -2121,14 +3341,14 @@
       <c r="G5">
         <v>5500</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+      <c r="H5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -2140,7 +3360,7 @@
         <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O5" s="7">
         <v>150000</v>
@@ -2154,8 +3374,11 @@
       <c r="R5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="B6">
         <v>3</v>
       </c>
@@ -2174,14 +3397,14 @@
       <c r="G6">
         <v>6000</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+      <c r="H6" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -2193,7 +3416,7 @@
         <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O6" s="7">
         <v>200000</v>
@@ -2207,8 +3430,11 @@
       <c r="R6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="B7">
         <v>4</v>
       </c>
@@ -2227,14 +3453,14 @@
       <c r="G7">
         <v>6500</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+      <c r="H7" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -2260,8 +3486,11 @@
       <c r="R7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="B8">
         <v>5</v>
       </c>
@@ -2280,14 +3509,14 @@
       <c r="G8">
         <v>7000</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+      <c r="H8" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -2313,8 +3542,11 @@
       <c r="R8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="B9">
         <v>6</v>
       </c>
@@ -2333,14 +3565,14 @@
       <c r="G9">
         <v>7500</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+      <c r="H9" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -2366,8 +3598,11 @@
       <c r="R9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="B10">
         <v>7</v>
       </c>
@@ -2386,14 +3621,14 @@
       <c r="G10">
         <v>8000</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+      <c r="H10" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K10">
         <v>5</v>
@@ -2419,8 +3654,11 @@
       <c r="R10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="B11">
         <v>8</v>
       </c>
@@ -2439,14 +3677,14 @@
       <c r="G11">
         <v>8500</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+      <c r="H11" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -2472,8 +3710,11 @@
       <c r="R11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="B12">
         <v>9</v>
       </c>
@@ -2492,14 +3733,14 @@
       <c r="G12">
         <v>9000</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+      <c r="H12" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K12">
         <v>8</v>
@@ -2525,8 +3766,11 @@
       <c r="R12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="B13">
         <v>10</v>
       </c>
@@ -2546,10 +3790,10 @@
         <v>10000</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="J13">
         <v>30001</v>
@@ -2578,8 +3822,11 @@
       <c r="R13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="B14">
         <v>11</v>
       </c>
@@ -2598,14 +3845,14 @@
       <c r="G14">
         <v>11000</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+      <c r="H14" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -2631,8 +3878,11 @@
       <c r="R14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="B15">
         <v>12</v>
       </c>
@@ -2651,14 +3901,14 @@
       <c r="G15">
         <v>12000</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+      <c r="H15" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -2684,8 +3934,11 @@
       <c r="R15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="B16">
         <v>13</v>
       </c>
@@ -2704,14 +3957,14 @@
       <c r="G16">
         <v>13000</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+      <c r="H16" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K16">
         <v>8</v>
@@ -2737,8 +3990,11 @@
       <c r="R16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19">
       <c r="B17">
         <v>14</v>
       </c>
@@ -2757,14 +4013,14 @@
       <c r="G17">
         <v>14000</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+      <c r="H17" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -2790,8 +4046,11 @@
       <c r="R17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19">
       <c r="B18">
         <v>15</v>
       </c>
@@ -2810,14 +4069,14 @@
       <c r="G18">
         <v>15000</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+      <c r="H18" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K18">
         <v>7</v>
@@ -2843,8 +4102,11 @@
       <c r="R18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19">
       <c r="B19">
         <v>16</v>
       </c>
@@ -2863,14 +4125,14 @@
       <c r="G19">
         <v>16000</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+      <c r="H19" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K19">
         <v>9</v>
@@ -2896,8 +4158,11 @@
       <c r="R19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19">
       <c r="B20">
         <v>17</v>
       </c>
@@ -2916,14 +4181,14 @@
       <c r="G20">
         <v>17000</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+      <c r="H20" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K20">
         <v>7</v>
@@ -2949,8 +4214,11 @@
       <c r="R20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19">
       <c r="B21">
         <v>18</v>
       </c>
@@ -2969,14 +4237,14 @@
       <c r="G21">
         <v>18000</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+      <c r="H21" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -3002,8 +4270,11 @@
       <c r="R21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19">
       <c r="B22">
         <v>19</v>
       </c>
@@ -3022,14 +4293,14 @@
       <c r="G22">
         <v>19000</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+      <c r="H22" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K22">
         <v>6</v>
@@ -3055,8 +4326,11 @@
       <c r="R22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19">
       <c r="B23">
         <v>20</v>
       </c>
@@ -3076,10 +4350,10 @@
         <v>21000</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="J23">
         <v>30001</v>
@@ -3108,8 +4382,11 @@
       <c r="R23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19">
       <c r="B24">
         <v>21</v>
       </c>
@@ -3128,14 +4405,14 @@
       <c r="G24">
         <v>22500</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+      <c r="H24" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K24">
         <v>5</v>
@@ -3161,8 +4438,11 @@
       <c r="R24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19">
       <c r="B25">
         <v>22</v>
       </c>
@@ -3181,14 +4461,14 @@
       <c r="G25">
         <v>24000</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+      <c r="H25" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K25">
         <v>4</v>
@@ -3214,8 +4494,11 @@
       <c r="R25">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19">
       <c r="B26">
         <v>23</v>
       </c>
@@ -3234,14 +4517,14 @@
       <c r="G26">
         <v>25500</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
+      <c r="H26" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K26">
         <v>10</v>
@@ -3267,8 +4550,11 @@
       <c r="R26">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19">
       <c r="B27">
         <v>24</v>
       </c>
@@ -3287,14 +4573,14 @@
       <c r="G27">
         <v>27000</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
+      <c r="H27" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K27">
         <v>10</v>
@@ -3320,8 +4606,11 @@
       <c r="R27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19">
       <c r="B28">
         <v>25</v>
       </c>
@@ -3340,14 +4629,14 @@
       <c r="G28">
         <v>28500</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
+      <c r="H28" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K28">
         <v>10</v>
@@ -3373,8 +4662,11 @@
       <c r="R28">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19">
       <c r="B29">
         <v>26</v>
       </c>
@@ -3393,14 +4685,14 @@
       <c r="G29">
         <v>30000</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
+      <c r="H29" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K29">
         <v>8</v>
@@ -3426,8 +4718,11 @@
       <c r="R29">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19">
       <c r="B30">
         <v>27</v>
       </c>
@@ -3446,14 +4741,14 @@
       <c r="G30">
         <v>31500</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
+      <c r="H30" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K30">
         <v>6</v>
@@ -3479,8 +4774,11 @@
       <c r="R30">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19">
       <c r="B31">
         <v>28</v>
       </c>
@@ -3499,14 +4797,14 @@
       <c r="G31">
         <v>33000</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
+      <c r="H31" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3532,8 +4830,11 @@
       <c r="R31">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19">
       <c r="B32">
         <v>29</v>
       </c>
@@ -3552,14 +4853,14 @@
       <c r="G32">
         <v>34500</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
+      <c r="H32" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K32">
         <v>4</v>
@@ -3585,8 +4886,11 @@
       <c r="R32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" ht="14.25" customHeight="1">
       <c r="B33">
         <v>30</v>
       </c>
@@ -3606,10 +4910,10 @@
         <v>36000</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="J33">
         <v>30001</v>
@@ -3638,8 +4942,11 @@
       <c r="R33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19">
       <c r="B34">
         <v>31</v>
       </c>
@@ -3658,14 +4965,14 @@
       <c r="G34">
         <v>38000</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
+      <c r="H34" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K34">
         <v>6</v>
@@ -3691,8 +4998,11 @@
       <c r="R34">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19">
       <c r="B35">
         <v>32</v>
       </c>
@@ -3711,14 +5021,14 @@
       <c r="G35">
         <v>40000</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
+      <c r="H35" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K35">
         <v>8</v>
@@ -3744,8 +5054,11 @@
       <c r="R35">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19">
       <c r="B36">
         <v>33</v>
       </c>
@@ -3764,14 +5077,14 @@
       <c r="G36">
         <v>42000</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
+      <c r="H36" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K36">
         <v>5</v>
@@ -3797,8 +5110,11 @@
       <c r="R36">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19">
       <c r="B37">
         <v>34</v>
       </c>
@@ -3817,14 +5133,14 @@
       <c r="G37">
         <v>44000</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
+      <c r="H37" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -3850,8 +5166,11 @@
       <c r="R37">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19">
       <c r="B38">
         <v>35</v>
       </c>
@@ -3870,14 +5189,14 @@
       <c r="G38">
         <v>46000</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
+      <c r="H38" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K38">
         <v>9</v>
@@ -3903,8 +5222,11 @@
       <c r="R38">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19">
       <c r="B39">
         <v>36</v>
       </c>
@@ -3923,14 +5245,14 @@
       <c r="G39">
         <v>48000</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
+      <c r="H39" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K39">
         <v>7</v>
@@ -3956,8 +5278,11 @@
       <c r="R39">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19">
       <c r="B40">
         <v>37</v>
       </c>
@@ -3976,14 +5301,14 @@
       <c r="G40">
         <v>50000</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
+      <c r="H40" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K40">
         <v>10</v>
@@ -4009,8 +5334,11 @@
       <c r="R40">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19">
       <c r="B41">
         <v>38</v>
       </c>
@@ -4029,14 +5357,14 @@
       <c r="G41">
         <v>52000</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
+      <c r="H41" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K41">
         <v>10</v>
@@ -4062,8 +5390,11 @@
       <c r="R41">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19">
       <c r="B42">
         <v>39</v>
       </c>
@@ -4082,14 +5413,14 @@
       <c r="G42">
         <v>54000</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
+      <c r="H42" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K42">
         <v>4</v>
@@ -4115,8 +5446,11 @@
       <c r="R42">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19">
       <c r="B43">
         <v>40</v>
       </c>
@@ -4136,10 +5470,10 @@
         <v>57000</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="J43">
         <v>30001</v>
@@ -4168,8 +5502,11 @@
       <c r="R43">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19">
       <c r="B44">
         <v>41</v>
       </c>
@@ -4188,14 +5525,14 @@
       <c r="G44">
         <v>60000</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
+      <c r="H44" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K44">
         <v>16</v>
@@ -4221,8 +5558,11 @@
       <c r="R44">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19">
       <c r="B45">
         <v>42</v>
       </c>
@@ -4241,14 +5581,14 @@
       <c r="G45">
         <v>63000</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
+      <c r="H45" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K45">
         <v>7</v>
@@ -4274,8 +5614,11 @@
       <c r="R45">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19">
       <c r="B46">
         <v>43</v>
       </c>
@@ -4294,14 +5637,14 @@
       <c r="G46">
         <v>66000</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
+      <c r="H46" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K46">
         <v>9</v>
@@ -4327,8 +5670,11 @@
       <c r="R46">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19">
       <c r="B47">
         <v>44</v>
       </c>
@@ -4347,14 +5693,14 @@
       <c r="G47">
         <v>69000</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
+      <c r="H47" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K47">
         <v>10</v>
@@ -4380,8 +5726,11 @@
       <c r="R47">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19">
       <c r="B48">
         <v>45</v>
       </c>
@@ -4400,14 +5749,14 @@
       <c r="G48">
         <v>72000</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
+      <c r="H48" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K48">
         <v>16</v>
@@ -4433,8 +5782,11 @@
       <c r="R48">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19">
       <c r="B49">
         <v>46</v>
       </c>
@@ -4453,14 +5805,14 @@
       <c r="G49">
         <v>75000</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
+      <c r="H49" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K49">
         <v>7</v>
@@ -4486,8 +5838,11 @@
       <c r="R49">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19">
       <c r="B50">
         <v>47</v>
       </c>
@@ -4506,14 +5861,14 @@
       <c r="G50">
         <v>78000</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
+      <c r="H50" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K50">
         <v>7</v>
@@ -4539,8 +5894,11 @@
       <c r="R50">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19">
       <c r="B51">
         <v>48</v>
       </c>
@@ -4559,14 +5917,14 @@
       <c r="G51">
         <v>81000</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
+      <c r="H51" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K51">
         <v>9</v>
@@ -4592,8 +5950,11 @@
       <c r="R51">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19">
       <c r="B52">
         <v>49</v>
       </c>
@@ -4612,14 +5973,14 @@
       <c r="G52">
         <v>84000</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
+      <c r="H52" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K52">
         <v>9</v>
@@ -4645,8 +6006,11 @@
       <c r="R52">
         <v>15</v>
       </c>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19">
       <c r="B53">
         <v>50</v>
       </c>
@@ -4666,10 +6030,10 @@
         <v>90000</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="J53">
         <v>30001</v>
@@ -4698,8 +6062,11 @@
       <c r="R53">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19">
       <c r="B54">
         <v>51</v>
       </c>
@@ -4718,14 +6085,14 @@
       <c r="G54">
         <v>94000</v>
       </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
+      <c r="H54" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K54">
         <v>11</v>
@@ -4751,8 +6118,11 @@
       <c r="R54">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19">
       <c r="B55">
         <v>52</v>
       </c>
@@ -4771,14 +6141,14 @@
       <c r="G55">
         <v>98000</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
+      <c r="H55" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K55">
         <v>11</v>
@@ -4804,8 +6174,11 @@
       <c r="R55">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19">
       <c r="B56">
         <v>53</v>
       </c>
@@ -4824,14 +6197,14 @@
       <c r="G56">
         <v>102000</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
+      <c r="H56" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K56">
         <v>7</v>
@@ -4857,8 +6230,11 @@
       <c r="R56">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19">
       <c r="B57">
         <v>54</v>
       </c>
@@ -4877,14 +6253,14 @@
       <c r="G57">
         <v>106000</v>
       </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
+      <c r="H57" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K57">
         <v>9</v>
@@ -4910,8 +6286,11 @@
       <c r="R57">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19">
       <c r="B58">
         <v>55</v>
       </c>
@@ -4930,14 +6309,14 @@
       <c r="G58">
         <v>110000</v>
       </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
+      <c r="H58" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K58">
         <v>16</v>
@@ -4963,8 +6342,11 @@
       <c r="R58">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19">
       <c r="B59">
         <v>56</v>
       </c>
@@ -4983,14 +6365,14 @@
       <c r="G59">
         <v>114000</v>
       </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
+      <c r="H59" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K59">
         <v>7</v>
@@ -5016,8 +6398,11 @@
       <c r="R59">
         <v>18</v>
       </c>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19">
       <c r="B60">
         <v>57</v>
       </c>
@@ -5036,14 +6421,14 @@
       <c r="G60">
         <v>118000</v>
       </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
+      <c r="H60" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K60">
         <v>11</v>
@@ -5069,8 +6454,11 @@
       <c r="R60">
         <v>18</v>
       </c>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19">
       <c r="B61">
         <v>58</v>
       </c>
@@ -5089,14 +6477,14 @@
       <c r="G61">
         <v>122000</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
+      <c r="H61" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K61">
         <v>9</v>
@@ -5122,8 +6510,11 @@
       <c r="R61">
         <v>18</v>
       </c>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19">
       <c r="B62">
         <v>59</v>
       </c>
@@ -5142,14 +6533,14 @@
       <c r="G62">
         <v>126000</v>
       </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
+      <c r="H62" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K62">
         <v>7</v>
@@ -5175,8 +6566,11 @@
       <c r="R62">
         <v>18</v>
       </c>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19">
       <c r="B63">
         <v>60</v>
       </c>
@@ -5196,10 +6590,10 @@
         <v>130000</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="J63">
         <v>30001</v>
@@ -5228,8 +6622,11 @@
       <c r="R63">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19">
       <c r="B64">
         <v>61</v>
       </c>
@@ -5248,14 +6645,14 @@
       <c r="G64">
         <v>135000</v>
       </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
+      <c r="H64" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K64">
         <v>16</v>
@@ -5281,8 +6678,11 @@
       <c r="R64">
         <v>21</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19">
       <c r="B65">
         <v>62</v>
       </c>
@@ -5301,14 +6701,14 @@
       <c r="G65">
         <v>140000</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
+      <c r="H65" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K65">
         <v>11</v>
@@ -5334,8 +6734,11 @@
       <c r="R65">
         <v>21</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19">
       <c r="B66">
         <v>63</v>
       </c>
@@ -5354,14 +6757,14 @@
       <c r="G66">
         <v>145000</v>
       </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
+      <c r="H66" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K66">
         <v>11</v>
@@ -5387,8 +6790,11 @@
       <c r="R66">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19">
       <c r="B67">
         <v>64</v>
       </c>
@@ -5407,14 +6813,14 @@
       <c r="G67">
         <v>150000</v>
       </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
+      <c r="H67" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K67">
         <v>13</v>
@@ -5440,8 +6846,11 @@
       <c r="R67">
         <v>21</v>
       </c>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19">
       <c r="B68">
         <v>65</v>
       </c>
@@ -5460,14 +6869,14 @@
       <c r="G68">
         <v>155000</v>
       </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
+      <c r="H68" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K68">
         <v>13</v>
@@ -5493,8 +6902,11 @@
       <c r="R68">
         <v>21</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19">
       <c r="B69">
         <v>66</v>
       </c>
@@ -5513,14 +6925,14 @@
       <c r="G69">
         <v>160000</v>
       </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
+      <c r="H69" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K69">
         <v>16</v>
@@ -5546,8 +6958,11 @@
       <c r="R69">
         <v>21</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19">
       <c r="B70">
         <v>67</v>
       </c>
@@ -5566,14 +6981,14 @@
       <c r="G70">
         <v>165000</v>
       </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
+      <c r="H70" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K70">
         <v>13</v>
@@ -5599,8 +7014,11 @@
       <c r="R70">
         <v>21</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19">
       <c r="B71">
         <v>68</v>
       </c>
@@ -5619,14 +7037,14 @@
       <c r="G71">
         <v>170000</v>
       </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
+      <c r="H71" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K71">
         <v>16</v>
@@ -5652,8 +7070,11 @@
       <c r="R71">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19">
       <c r="B72">
         <v>69</v>
       </c>
@@ -5672,14 +7093,14 @@
       <c r="G72">
         <v>175000</v>
       </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
+      <c r="H72" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K72">
         <v>13</v>
@@ -5705,8 +7126,11 @@
       <c r="R72">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19">
       <c r="B73">
         <v>70</v>
       </c>
@@ -5726,10 +7150,10 @@
         <v>180000</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="J73">
         <v>30001</v>
@@ -5758,8 +7182,11 @@
       <c r="R73">
         <v>21</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19">
       <c r="B74">
         <v>71</v>
       </c>
@@ -5778,14 +7205,14 @@
       <c r="G74">
         <v>190000</v>
       </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
+      <c r="H74" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K74">
         <v>13</v>
@@ -5811,8 +7238,11 @@
       <c r="R74">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19">
       <c r="B75">
         <v>72</v>
       </c>
@@ -5831,14 +7261,14 @@
       <c r="G75">
         <v>200000</v>
       </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
+      <c r="H75" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K75">
         <v>7</v>
@@ -5864,8 +7294,11 @@
       <c r="R75">
         <v>24</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19">
       <c r="B76">
         <v>73</v>
       </c>
@@ -5884,14 +7317,14 @@
       <c r="G76">
         <v>210000</v>
       </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
+      <c r="H76" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K76">
         <v>9</v>
@@ -5917,8 +7350,11 @@
       <c r="R76">
         <v>24</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19">
       <c r="B77">
         <v>74</v>
       </c>
@@ -5937,14 +7373,14 @@
       <c r="G77">
         <v>220000</v>
       </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
+      <c r="H77" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K77">
         <v>16</v>
@@ -5970,8 +7406,11 @@
       <c r="R77">
         <v>24</v>
       </c>
-    </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19">
       <c r="B78">
         <v>75</v>
       </c>
@@ -5990,14 +7429,14 @@
       <c r="G78">
         <v>230000</v>
       </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
+      <c r="H78" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K78">
         <v>15</v>
@@ -6023,8 +7462,11 @@
       <c r="R78">
         <v>24</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19">
       <c r="B79">
         <v>76</v>
       </c>
@@ -6043,14 +7485,14 @@
       <c r="G79">
         <v>240000</v>
       </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
+      <c r="H79" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K79">
         <v>3</v>
@@ -6076,8 +7518,11 @@
       <c r="R79">
         <v>24</v>
       </c>
-    </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19">
       <c r="B80">
         <v>77</v>
       </c>
@@ -6096,14 +7541,14 @@
       <c r="G80">
         <v>250000</v>
       </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
+      <c r="H80" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K80">
         <v>8</v>
@@ -6129,8 +7574,11 @@
       <c r="R80">
         <v>24</v>
       </c>
-    </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19">
       <c r="B81">
         <v>78</v>
       </c>
@@ -6149,14 +7597,14 @@
       <c r="G81">
         <v>260000</v>
       </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
+      <c r="H81" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K81">
         <v>7</v>
@@ -6182,8 +7630,11 @@
       <c r="R81">
         <v>24</v>
       </c>
-    </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19">
       <c r="B82">
         <v>79</v>
       </c>
@@ -6202,14 +7653,14 @@
       <c r="G82">
         <v>270000</v>
       </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
+      <c r="H82" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K82">
         <v>13</v>
@@ -6235,8 +7686,11 @@
       <c r="R82">
         <v>24</v>
       </c>
-    </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19">
       <c r="B83">
         <v>80</v>
       </c>
@@ -6256,10 +7710,10 @@
         <v>280000</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="J83">
         <v>30001</v>
@@ -6288,8 +7742,11 @@
       <c r="R83">
         <v>24</v>
       </c>
-    </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19">
       <c r="B84">
         <v>81</v>
       </c>
@@ -6308,14 +7765,14 @@
       <c r="G84">
         <v>290000</v>
       </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
+      <c r="H84" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -6341,8 +7798,11 @@
       <c r="R84">
         <v>27</v>
       </c>
-    </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19">
       <c r="B85">
         <v>82</v>
       </c>
@@ -6361,14 +7821,14 @@
       <c r="G85">
         <v>300000</v>
       </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
+      <c r="H85" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K85">
         <v>3</v>
@@ -6394,8 +7854,11 @@
       <c r="R85">
         <v>27</v>
       </c>
-    </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19">
       <c r="B86">
         <v>83</v>
       </c>
@@ -6414,14 +7877,14 @@
       <c r="G86">
         <v>310000</v>
       </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
+      <c r="H86" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K86">
         <v>4</v>
@@ -6447,8 +7910,11 @@
       <c r="R86">
         <v>27</v>
       </c>
-    </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19">
       <c r="B87">
         <v>84</v>
       </c>
@@ -6467,14 +7933,14 @@
       <c r="G87">
         <v>320000</v>
       </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
+      <c r="H87" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K87">
         <v>6</v>
@@ -6500,8 +7966,11 @@
       <c r="R87">
         <v>27</v>
       </c>
-    </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19">
       <c r="B88">
         <v>85</v>
       </c>
@@ -6520,14 +7989,14 @@
       <c r="G88">
         <v>330000</v>
       </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
+      <c r="H88" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K88">
         <v>8</v>
@@ -6553,8 +8022,11 @@
       <c r="R88">
         <v>27</v>
       </c>
-    </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19">
       <c r="B89">
         <v>86</v>
       </c>
@@ -6573,14 +8045,14 @@
       <c r="G89">
         <v>340000</v>
       </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
+      <c r="H89" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K89">
         <v>7</v>
@@ -6606,8 +8078,11 @@
       <c r="R89">
         <v>27</v>
       </c>
-    </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19">
       <c r="B90">
         <v>87</v>
       </c>
@@ -6626,14 +8101,14 @@
       <c r="G90">
         <v>350000</v>
       </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
+      <c r="H90" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K90">
         <v>9</v>
@@ -6659,8 +8134,11 @@
       <c r="R90">
         <v>27</v>
       </c>
-    </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19">
       <c r="B91">
         <v>88</v>
       </c>
@@ -6679,14 +8157,14 @@
       <c r="G91">
         <v>360000</v>
       </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
+      <c r="H91" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K91">
         <v>10</v>
@@ -6712,8 +8190,11 @@
       <c r="R91">
         <v>27</v>
       </c>
-    </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19">
       <c r="B92">
         <v>89</v>
       </c>
@@ -6732,14 +8213,14 @@
       <c r="G92">
         <v>370000</v>
       </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
+      <c r="H92" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="K92">
         <v>12</v>
@@ -6765,8 +8246,11 @@
       <c r="R92">
         <v>27</v>
       </c>
-    </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="S92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19">
       <c r="B93">
         <v>90</v>
       </c>
@@ -6786,10 +8270,10 @@
         <v>380000</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="J93">
         <v>30001</v>
@@ -6817,13 +8301,16 @@
       </c>
       <c r="R93">
         <v>27</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -6832,14 +8319,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -6847,14 +8334,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/config/data/剧情战斗配置.xlsx
+++ b/config/data/剧情战斗配置.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="20400" windowHeight="8430"/>
@@ -2662,8 +2662,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -3174,14 +3174,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
@@ -3193,7 +3193,7 @@
     <col min="14" max="14" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3201,13 +3201,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1</v>
       </c>
@@ -3280,10 +3280,10 @@
         <v>300</v>
       </c>
       <c r="F4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>209</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>2</v>
       </c>
@@ -3333,13 +3333,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="F5">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="G5">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>14</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
@@ -3389,13 +3389,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="F6">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="G6">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>209</v>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>4</v>
       </c>
@@ -3445,13 +3445,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="F7">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="G7">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>210</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>5</v>
       </c>
@@ -3501,13 +3501,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="F8">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="G8">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>209</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>6</v>
       </c>
@@ -3557,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="F9">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G9">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>210</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>7</v>
       </c>
@@ -3613,13 +3613,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>480</v>
+        <v>390</v>
       </c>
       <c r="F10">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="G10">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>209</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>8</v>
       </c>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="F11">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="G11">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>210</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>9</v>
       </c>
@@ -3725,13 +3725,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="F12">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="G12">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>209</v>
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>10</v>
       </c>
@@ -3820,13 +3820,13 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>11</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>12</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>13</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>14</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:19">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>15</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:19">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>16</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:19">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>17</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:19">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>18</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:19">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>19</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:19">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>20</v>
       </c>
@@ -4341,10 +4341,10 @@
         <v>30</v>
       </c>
       <c r="E23">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F23">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G23">
         <v>21000</v>
@@ -4380,13 +4380,13 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:19">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>21</v>
       </c>
@@ -4397,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F24">
         <v>1700</v>
       </c>
       <c r="G24">
-        <v>22500</v>
+        <v>23000</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>209</v>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>22</v>
       </c>
@@ -4453,13 +4453,13 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="F25">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G25">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>210</v>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:19">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>23</v>
       </c>
@@ -4509,13 +4509,13 @@
         <v>0</v>
       </c>
       <c r="E26">
+        <v>2600</v>
+      </c>
+      <c r="F26">
         <v>2300</v>
       </c>
-      <c r="F26">
-        <v>2100</v>
-      </c>
       <c r="G26">
-        <v>25500</v>
+        <v>27000</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>209</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:19">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B27">
         <v>24</v>
       </c>
@@ -4565,13 +4565,13 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="F27">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="G27">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>210</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:19">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>25</v>
       </c>
@@ -4621,13 +4621,13 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="F28">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="G28">
-        <v>28500</v>
+        <v>31000</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>209</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:19">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>26</v>
       </c>
@@ -4677,13 +4677,13 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="F29">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="G29">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>210</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:19">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>27</v>
       </c>
@@ -4733,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>3100</v>
+        <v>3800</v>
       </c>
       <c r="F30">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="G30">
-        <v>31500</v>
+        <v>35000</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>209</v>
@@ -4778,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:19">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>28</v>
       </c>
@@ -4789,13 +4789,13 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>3300</v>
+        <v>4100</v>
       </c>
       <c r="F31">
-        <v>3100</v>
+        <v>3800</v>
       </c>
       <c r="G31">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>210</v>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:19">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>29</v>
       </c>
@@ -4845,13 +4845,13 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="F32">
-        <v>3300</v>
+        <v>4100</v>
       </c>
       <c r="G32">
-        <v>34500</v>
+        <v>39000</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>209</v>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:19" ht="14.25" customHeight="1">
+    <row r="33" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33">
         <v>30</v>
       </c>
@@ -4901,13 +4901,13 @@
         <v>30</v>
       </c>
       <c r="E33">
-        <v>3800</v>
+        <v>4900</v>
       </c>
       <c r="F33">
-        <v>3600</v>
+        <v>4400</v>
       </c>
       <c r="G33">
-        <v>36000</v>
+        <v>42000</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>210</v>
@@ -4940,13 +4940,13 @@
         <v>0</v>
       </c>
       <c r="R33">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:19">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>31</v>
       </c>
@@ -4957,13 +4957,13 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="F34">
-        <v>3700</v>
+        <v>4500</v>
       </c>
       <c r="G34">
-        <v>38000</v>
+        <v>45000</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>209</v>
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:19">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B35">
         <v>32</v>
       </c>
@@ -5013,13 +5013,13 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>4200</v>
+        <v>5500</v>
       </c>
       <c r="F35">
-        <v>3700</v>
+        <v>5000</v>
       </c>
       <c r="G35">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>210</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:19">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>33</v>
       </c>
@@ -5069,13 +5069,13 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>4400</v>
+        <v>6000</v>
       </c>
       <c r="F36">
-        <v>3700</v>
+        <v>5500</v>
       </c>
       <c r="G36">
-        <v>42000</v>
+        <v>51000</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>209</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:19">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B37">
         <v>34</v>
       </c>
@@ -5125,13 +5125,13 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>4600</v>
+        <v>6500</v>
       </c>
       <c r="F37">
-        <v>3700</v>
+        <v>6000</v>
       </c>
       <c r="G37">
-        <v>44000</v>
+        <v>54000</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>210</v>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:19">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>35</v>
       </c>
@@ -5181,13 +5181,13 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="F38">
-        <v>3700</v>
+        <v>6500</v>
       </c>
       <c r="G38">
-        <v>46000</v>
+        <v>57000</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>209</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:19">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B39">
         <v>36</v>
       </c>
@@ -5237,13 +5237,13 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="F39">
-        <v>3800</v>
+        <v>7000</v>
       </c>
       <c r="G39">
-        <v>48000</v>
+        <v>60000</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>210</v>
@@ -5282,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:19">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B40">
         <v>37</v>
       </c>
@@ -5293,13 +5293,13 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="F40">
-        <v>3800</v>
+        <v>7500</v>
       </c>
       <c r="G40">
-        <v>50000</v>
+        <v>63000</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>209</v>
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:19">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>38</v>
       </c>
@@ -5349,13 +5349,13 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>5400</v>
+        <v>8500</v>
       </c>
       <c r="F41">
-        <v>3800</v>
+        <v>8000</v>
       </c>
       <c r="G41">
-        <v>52000</v>
+        <v>66000</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>210</v>
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B42">
         <v>39</v>
       </c>
@@ -5405,13 +5405,13 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>5600</v>
+        <v>9000</v>
       </c>
       <c r="F42">
-        <v>3800</v>
+        <v>8500</v>
       </c>
       <c r="G42">
-        <v>54000</v>
+        <v>69000</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>209</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:19">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B43">
         <v>40</v>
       </c>
@@ -5461,13 +5461,13 @@
         <v>30</v>
       </c>
       <c r="E43">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="F43">
-        <v>3800</v>
+        <v>9000</v>
       </c>
       <c r="G43">
-        <v>57000</v>
+        <v>75000</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>210</v>
@@ -5500,13 +5500,13 @@
         <v>0</v>
       </c>
       <c r="R43">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:19">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>41</v>
       </c>
@@ -5517,13 +5517,13 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>6100</v>
+        <v>11000</v>
       </c>
       <c r="F44">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="G44">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>209</v>
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:19">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B45">
         <v>42</v>
       </c>
@@ -5573,13 +5573,13 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>6200</v>
+        <v>12000</v>
       </c>
       <c r="F45">
-        <v>4300</v>
+        <v>11000</v>
       </c>
       <c r="G45">
-        <v>63000</v>
+        <v>85000</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>210</v>
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:19">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B46">
         <v>43</v>
       </c>
@@ -5629,13 +5629,13 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>6300</v>
+        <v>13000</v>
       </c>
       <c r="F46">
-        <v>4600</v>
+        <v>12000</v>
       </c>
       <c r="G46">
-        <v>66000</v>
+        <v>90000</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>209</v>
@@ -5674,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:19">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B47">
         <v>44</v>
       </c>
@@ -5685,13 +5685,13 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>6400</v>
+        <v>14000</v>
       </c>
       <c r="F47">
-        <v>4900</v>
+        <v>13000</v>
       </c>
       <c r="G47">
-        <v>69000</v>
+        <v>95000</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>210</v>
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:19">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B48">
         <v>45</v>
       </c>
@@ -5741,13 +5741,13 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="F48">
-        <v>5200</v>
+        <v>14000</v>
       </c>
       <c r="G48">
-        <v>72000</v>
+        <v>100000</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>209</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:19">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B49">
         <v>46</v>
       </c>
@@ -5797,13 +5797,13 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>6600</v>
+        <v>16000</v>
       </c>
       <c r="F49">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="G49">
-        <v>75000</v>
+        <v>105000</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>210</v>
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:19">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B50">
         <v>47</v>
       </c>
@@ -5853,13 +5853,13 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>6700</v>
+        <v>17000</v>
       </c>
       <c r="F50">
-        <v>5800</v>
+        <v>16000</v>
       </c>
       <c r="G50">
-        <v>78000</v>
+        <v>110000</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>209</v>
@@ -5898,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:19">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B51">
         <v>48</v>
       </c>
@@ -5909,13 +5909,13 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>6800</v>
+        <v>18000</v>
       </c>
       <c r="F51">
-        <v>6100</v>
+        <v>17000</v>
       </c>
       <c r="G51">
-        <v>81000</v>
+        <v>115000</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>210</v>
@@ -5954,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:19">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B52">
         <v>49</v>
       </c>
@@ -5965,13 +5965,13 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>6900</v>
+        <v>19000</v>
       </c>
       <c r="F52">
-        <v>6400</v>
+        <v>18000</v>
       </c>
       <c r="G52">
-        <v>84000</v>
+        <v>120000</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>209</v>
@@ -6010,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:19">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B53">
         <v>50</v>
       </c>
@@ -6021,13 +6021,13 @@
         <v>30</v>
       </c>
       <c r="E53">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F53">
-        <v>6800</v>
+        <v>19000</v>
       </c>
       <c r="G53">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>210</v>
@@ -6060,13 +6060,13 @@
         <v>0</v>
       </c>
       <c r="R53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:19">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B54">
         <v>51</v>
       </c>
@@ -6077,13 +6077,13 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>7200</v>
+        <v>21000</v>
       </c>
       <c r="F54">
-        <v>7100</v>
+        <v>20000</v>
       </c>
       <c r="G54">
-        <v>94000</v>
+        <v>140000</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>209</v>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:19">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B55">
         <v>52</v>
       </c>
@@ -6133,13 +6133,13 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>7400</v>
+        <v>22000</v>
       </c>
       <c r="F55">
-        <v>7400</v>
+        <v>21000</v>
       </c>
       <c r="G55">
-        <v>98000</v>
+        <v>150000</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>210</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:19">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B56">
         <v>53</v>
       </c>
@@ -6189,13 +6189,13 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>7600</v>
+        <v>23000</v>
       </c>
       <c r="F56">
-        <v>7700</v>
+        <v>22000</v>
       </c>
       <c r="G56">
-        <v>102000</v>
+        <v>160000</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>209</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:19">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B57">
         <v>54</v>
       </c>
@@ -6245,13 +6245,13 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>7800</v>
+        <v>24000</v>
       </c>
       <c r="F57">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="G57">
-        <v>106000</v>
+        <v>170000</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>210</v>
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:19">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B58">
         <v>55</v>
       </c>
@@ -6301,13 +6301,13 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="F58">
-        <v>8300</v>
+        <v>24000</v>
       </c>
       <c r="G58">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>209</v>
@@ -6346,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:19">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B59">
         <v>56</v>
       </c>
@@ -6357,13 +6357,13 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>8200</v>
+        <v>26000</v>
       </c>
       <c r="F59">
-        <v>8700</v>
+        <v>25000</v>
       </c>
       <c r="G59">
-        <v>114000</v>
+        <v>190000</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>210</v>
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:19">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B60">
         <v>57</v>
       </c>
@@ -6413,13 +6413,13 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>8400</v>
+        <v>27000</v>
       </c>
       <c r="F60">
-        <v>9000</v>
+        <v>26000</v>
       </c>
       <c r="G60">
-        <v>118000</v>
+        <v>200000</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>209</v>
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:19">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B61">
         <v>58</v>
       </c>
@@ -6469,13 +6469,13 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>8600</v>
+        <v>28000</v>
       </c>
       <c r="F61">
-        <v>9300</v>
+        <v>27000</v>
       </c>
       <c r="G61">
-        <v>122000</v>
+        <v>210000</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>210</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:19">
+    <row r="62" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B62">
         <v>59</v>
       </c>
@@ -6525,13 +6525,13 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>8800</v>
+        <v>29000</v>
       </c>
       <c r="F62">
-        <v>9600</v>
+        <v>28000</v>
       </c>
       <c r="G62">
-        <v>126000</v>
+        <v>220000</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>209</v>
@@ -6570,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:19">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B63">
         <v>60</v>
       </c>
@@ -6581,13 +6581,13 @@
         <v>30</v>
       </c>
       <c r="E63">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="F63">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="G63">
-        <v>130000</v>
+        <v>230000</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>210</v>
@@ -6620,13 +6620,13 @@
         <v>0</v>
       </c>
       <c r="R63">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="S63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:19">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B64">
         <v>61</v>
       </c>
@@ -6637,13 +6637,13 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>9300</v>
+        <v>31000</v>
       </c>
       <c r="F64">
-        <v>10200</v>
+        <v>30000</v>
       </c>
       <c r="G64">
-        <v>135000</v>
+        <v>240000</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>209</v>
@@ -6682,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:19">
+    <row r="65" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B65">
         <v>62</v>
       </c>
@@ -6693,13 +6693,13 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>9600</v>
+        <v>32000</v>
       </c>
       <c r="F65">
-        <v>10400</v>
+        <v>31000</v>
       </c>
       <c r="G65">
-        <v>140000</v>
+        <v>250000</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>210</v>
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:19">
+    <row r="66" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B66">
         <v>63</v>
       </c>
@@ -6749,13 +6749,13 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>9900</v>
+        <v>33000</v>
       </c>
       <c r="F66">
-        <v>10600</v>
+        <v>32000</v>
       </c>
       <c r="G66">
-        <v>145000</v>
+        <v>260000</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>209</v>
@@ -6794,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:19">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B67">
         <v>64</v>
       </c>
@@ -6805,13 +6805,13 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>10200</v>
+        <v>34000</v>
       </c>
       <c r="F67">
-        <v>10800</v>
+        <v>33000</v>
       </c>
       <c r="G67">
-        <v>150000</v>
+        <v>270000</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>210</v>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:19">
+    <row r="68" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B68">
         <v>65</v>
       </c>
@@ -6861,13 +6861,13 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>10500</v>
+        <v>35000</v>
       </c>
       <c r="F68">
-        <v>11000</v>
+        <v>34000</v>
       </c>
       <c r="G68">
-        <v>155000</v>
+        <v>280000</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>209</v>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:19">
+    <row r="69" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B69">
         <v>66</v>
       </c>
@@ -6917,13 +6917,13 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>10800</v>
+        <v>36000</v>
       </c>
       <c r="F69">
-        <v>11200</v>
+        <v>35000</v>
       </c>
       <c r="G69">
-        <v>160000</v>
+        <v>290000</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>210</v>
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:19">
+    <row r="70" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B70">
         <v>67</v>
       </c>
@@ -6973,13 +6973,13 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>11100</v>
+        <v>37000</v>
       </c>
       <c r="F70">
-        <v>11400</v>
+        <v>36000</v>
       </c>
       <c r="G70">
-        <v>165000</v>
+        <v>300000</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>209</v>
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:19">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B71">
         <v>68</v>
       </c>
@@ -7029,13 +7029,13 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>11400</v>
+        <v>38000</v>
       </c>
       <c r="F71">
-        <v>11600</v>
+        <v>37000</v>
       </c>
       <c r="G71">
-        <v>170000</v>
+        <v>310000</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>210</v>
@@ -7074,7 +7074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:19">
+    <row r="72" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B72">
         <v>69</v>
       </c>
@@ -7085,13 +7085,13 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>11700</v>
+        <v>39000</v>
       </c>
       <c r="F72">
-        <v>11800</v>
+        <v>38000</v>
       </c>
       <c r="G72">
-        <v>175000</v>
+        <v>320000</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>209</v>
@@ -7130,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:19">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B73">
         <v>70</v>
       </c>
@@ -7141,13 +7141,13 @@
         <v>30</v>
       </c>
       <c r="E73">
-        <v>12000</v>
+        <v>40000</v>
       </c>
       <c r="F73">
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="G73">
-        <v>180000</v>
+        <v>330000</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>210</v>
@@ -7180,13 +7180,13 @@
         <v>0</v>
       </c>
       <c r="R73">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:19">
+    <row r="74" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B74">
         <v>71</v>
       </c>
@@ -7197,13 +7197,13 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>12300</v>
+        <v>41500</v>
       </c>
       <c r="F74">
-        <v>12200</v>
+        <v>41000</v>
       </c>
       <c r="G74">
-        <v>190000</v>
+        <v>345000</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>210</v>
@@ -7242,7 +7242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:19">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B75">
         <v>72</v>
       </c>
@@ -7253,13 +7253,13 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>12600</v>
+        <v>43000</v>
       </c>
       <c r="F75">
-        <v>12400</v>
+        <v>42500</v>
       </c>
       <c r="G75">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>209</v>
@@ -7298,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:19">
+    <row r="76" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B76">
         <v>73</v>
       </c>
@@ -7309,13 +7309,13 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>12900</v>
+        <v>44500</v>
       </c>
       <c r="F76">
-        <v>12600</v>
+        <v>44000</v>
       </c>
       <c r="G76">
-        <v>210000</v>
+        <v>375000</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>210</v>
@@ -7354,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:19">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B77">
         <v>74</v>
       </c>
@@ -7365,13 +7365,13 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>13200</v>
+        <v>46000</v>
       </c>
       <c r="F77">
-        <v>12800</v>
+        <v>45500</v>
       </c>
       <c r="G77">
-        <v>220000</v>
+        <v>390000</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>209</v>
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:19">
+    <row r="78" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B78">
         <v>75</v>
       </c>
@@ -7418,16 +7418,16 @@
         <v>2000</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E78">
-        <v>13500</v>
+        <v>47500</v>
       </c>
       <c r="F78">
-        <v>13000</v>
+        <v>47000</v>
       </c>
       <c r="G78">
-        <v>230000</v>
+        <v>405000</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>210</v>
@@ -7463,10 +7463,10 @@
         <v>24</v>
       </c>
       <c r="S78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B79">
         <v>76</v>
       </c>
@@ -7477,13 +7477,13 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>13800</v>
+        <v>49000</v>
       </c>
       <c r="F79">
-        <v>13200</v>
+        <v>48500</v>
       </c>
       <c r="G79">
-        <v>240000</v>
+        <v>420000</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>209</v>
@@ -7522,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:19">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B80">
         <v>77</v>
       </c>
@@ -7533,13 +7533,13 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>14100</v>
+        <v>50500</v>
       </c>
       <c r="F80">
-        <v>13400</v>
+        <v>50000</v>
       </c>
       <c r="G80">
-        <v>250000</v>
+        <v>435000</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>210</v>
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:19">
+    <row r="81" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B81">
         <v>78</v>
       </c>
@@ -7589,13 +7589,13 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>14400</v>
+        <v>52000</v>
       </c>
       <c r="F81">
-        <v>13600</v>
+        <v>51500</v>
       </c>
       <c r="G81">
-        <v>260000</v>
+        <v>450000</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>209</v>
@@ -7634,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:19">
+    <row r="82" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B82">
         <v>79</v>
       </c>
@@ -7645,13 +7645,13 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>14700</v>
+        <v>53500</v>
       </c>
       <c r="F82">
-        <v>13800</v>
+        <v>53000</v>
       </c>
       <c r="G82">
-        <v>270000</v>
+        <v>465000</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>210</v>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:19">
+    <row r="83" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B83">
         <v>80</v>
       </c>
@@ -7701,13 +7701,13 @@
         <v>30</v>
       </c>
       <c r="E83">
-        <v>15000</v>
+        <v>55000</v>
       </c>
       <c r="F83">
-        <v>14000</v>
+        <v>54500</v>
       </c>
       <c r="G83">
-        <v>280000</v>
+        <v>480000</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>209</v>
@@ -7740,13 +7740,13 @@
         <v>0</v>
       </c>
       <c r="R83">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="S83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:19">
+    <row r="84" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B84">
         <v>81</v>
       </c>
@@ -7757,13 +7757,13 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>15300</v>
+        <v>56500</v>
       </c>
       <c r="F84">
-        <v>14300</v>
+        <v>56000</v>
       </c>
       <c r="G84">
-        <v>290000</v>
+        <v>495000</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>210</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:19">
+    <row r="85" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B85">
         <v>82</v>
       </c>
@@ -7813,13 +7813,13 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>15600</v>
+        <v>58000</v>
       </c>
       <c r="F85">
-        <v>14600</v>
+        <v>57500</v>
       </c>
       <c r="G85">
-        <v>300000</v>
+        <v>510000</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>209</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:19">
+    <row r="86" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B86">
         <v>83</v>
       </c>
@@ -7869,13 +7869,13 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>15900</v>
+        <v>59500</v>
       </c>
       <c r="F86">
-        <v>14900</v>
+        <v>59000</v>
       </c>
       <c r="G86">
-        <v>310000</v>
+        <v>525000</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>210</v>
@@ -7914,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:19">
+    <row r="87" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B87">
         <v>84</v>
       </c>
@@ -7925,13 +7925,13 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>16200</v>
+        <v>61000</v>
       </c>
       <c r="F87">
-        <v>15200</v>
+        <v>60500</v>
       </c>
       <c r="G87">
-        <v>320000</v>
+        <v>540000</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>209</v>
@@ -7970,7 +7970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:19">
+    <row r="88" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B88">
         <v>85</v>
       </c>
@@ -7981,13 +7981,13 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>16500</v>
+        <v>62500</v>
       </c>
       <c r="F88">
-        <v>15500</v>
+        <v>62000</v>
       </c>
       <c r="G88">
-        <v>330000</v>
+        <v>555000</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>210</v>
@@ -8026,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:19">
+    <row r="89" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B89">
         <v>86</v>
       </c>
@@ -8037,13 +8037,13 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>16800</v>
+        <v>64000</v>
       </c>
       <c r="F89">
-        <v>15800</v>
+        <v>63500</v>
       </c>
       <c r="G89">
-        <v>340000</v>
+        <v>570000</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>209</v>
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:19">
+    <row r="90" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B90">
         <v>87</v>
       </c>
@@ -8093,13 +8093,13 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>17100</v>
+        <v>65500</v>
       </c>
       <c r="F90">
-        <v>16100</v>
+        <v>65000</v>
       </c>
       <c r="G90">
-        <v>350000</v>
+        <v>585000</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>210</v>
@@ -8138,7 +8138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:19">
+    <row r="91" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B91">
         <v>88</v>
       </c>
@@ -8149,13 +8149,13 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>17400</v>
+        <v>67000</v>
       </c>
       <c r="F91">
-        <v>16400</v>
+        <v>66500</v>
       </c>
       <c r="G91">
-        <v>360000</v>
+        <v>600000</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>209</v>
@@ -8194,7 +8194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:19">
+    <row r="92" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B92">
         <v>89</v>
       </c>
@@ -8205,13 +8205,13 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>17700</v>
+        <v>68500</v>
       </c>
       <c r="F92">
-        <v>16700</v>
+        <v>68000</v>
       </c>
       <c r="G92">
-        <v>370000</v>
+        <v>615000</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>210</v>
@@ -8250,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:19">
+    <row r="93" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B93">
         <v>90</v>
       </c>
@@ -8261,13 +8261,13 @@
         <v>30</v>
       </c>
       <c r="E93">
-        <v>18000</v>
+        <v>70000</v>
       </c>
       <c r="F93">
-        <v>17000</v>
+        <v>69500</v>
       </c>
       <c r="G93">
-        <v>380000</v>
+        <v>630000</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>209</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="R93">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S93">
         <v>1</v>
@@ -8319,12 +8319,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -8334,12 +8334,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/config/data/剧情战斗配置.xlsx
+++ b/config/data/剧情战斗配置.xlsx
@@ -3177,8 +3177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5019,7 +5019,7 @@
         <v>5000</v>
       </c>
       <c r="G35">
-        <v>48000</v>
+        <v>50000</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>210</v>
@@ -5075,7 +5075,7 @@
         <v>5500</v>
       </c>
       <c r="G36">
-        <v>51000</v>
+        <v>55000</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>209</v>
@@ -5131,7 +5131,7 @@
         <v>6000</v>
       </c>
       <c r="G37">
-        <v>54000</v>
+        <v>60000</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>210</v>
@@ -5187,7 +5187,7 @@
         <v>6500</v>
       </c>
       <c r="G38">
-        <v>57000</v>
+        <v>65000</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>209</v>
@@ -5243,7 +5243,7 @@
         <v>7000</v>
       </c>
       <c r="G39">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>210</v>
@@ -5299,7 +5299,7 @@
         <v>7500</v>
       </c>
       <c r="G40">
-        <v>63000</v>
+        <v>75000</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>209</v>
@@ -5355,7 +5355,7 @@
         <v>8000</v>
       </c>
       <c r="G41">
-        <v>66000</v>
+        <v>80000</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>210</v>
@@ -5411,7 +5411,7 @@
         <v>8500</v>
       </c>
       <c r="G42">
-        <v>69000</v>
+        <v>85000</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>209</v>
@@ -5467,7 +5467,7 @@
         <v>9000</v>
       </c>
       <c r="G43">
-        <v>75000</v>
+        <v>90000</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>210</v>
@@ -5523,7 +5523,7 @@
         <v>10000</v>
       </c>
       <c r="G44">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>209</v>
@@ -5579,7 +5579,7 @@
         <v>11000</v>
       </c>
       <c r="G45">
-        <v>85000</v>
+        <v>110000</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>210</v>
@@ -5635,7 +5635,7 @@
         <v>12000</v>
       </c>
       <c r="G46">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>209</v>
@@ -5691,7 +5691,7 @@
         <v>13000</v>
       </c>
       <c r="G47">
-        <v>95000</v>
+        <v>130000</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>210</v>
@@ -5747,7 +5747,7 @@
         <v>14000</v>
       </c>
       <c r="G48">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>209</v>
@@ -5803,7 +5803,7 @@
         <v>15000</v>
       </c>
       <c r="G49">
-        <v>105000</v>
+        <v>150000</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>210</v>
@@ -5859,7 +5859,7 @@
         <v>16000</v>
       </c>
       <c r="G50">
-        <v>110000</v>
+        <v>160000</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>209</v>
@@ -5915,7 +5915,7 @@
         <v>17000</v>
       </c>
       <c r="G51">
-        <v>115000</v>
+        <v>170000</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>210</v>
@@ -5971,7 +5971,7 @@
         <v>18000</v>
       </c>
       <c r="G52">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>209</v>
@@ -6021,13 +6021,13 @@
         <v>30</v>
       </c>
       <c r="E53">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="F53">
         <v>19000</v>
       </c>
       <c r="G53">
-        <v>130000</v>
+        <v>190000</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>210</v>
@@ -6077,13 +6077,13 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="F54">
         <v>20000</v>
       </c>
       <c r="G54">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>209</v>
@@ -6133,13 +6133,13 @@
         <v>0</v>
       </c>
       <c r="E55">
+        <v>24000</v>
+      </c>
+      <c r="F55">
         <v>22000</v>
       </c>
-      <c r="F55">
-        <v>21000</v>
-      </c>
       <c r="G55">
-        <v>150000</v>
+        <v>210000</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>210</v>
@@ -6189,13 +6189,13 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="F56">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="G56">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>209</v>
@@ -6245,13 +6245,13 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="F57">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="G57">
-        <v>170000</v>
+        <v>230000</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>210</v>
@@ -6301,13 +6301,13 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="F58">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="G58">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>209</v>
@@ -6357,13 +6357,13 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="F59">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G59">
-        <v>190000</v>
+        <v>250000</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>210</v>
@@ -6413,13 +6413,13 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="F60">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="G60">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>209</v>
@@ -6469,13 +6469,13 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="F61">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="G61">
-        <v>210000</v>
+        <v>270000</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>210</v>
@@ -6525,13 +6525,13 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="F62">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="G62">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>209</v>
@@ -6581,13 +6581,13 @@
         <v>30</v>
       </c>
       <c r="E63">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F63">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="G63">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>210</v>
@@ -6637,13 +6637,13 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>31000</v>
+        <v>42000</v>
       </c>
       <c r="F64">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G64">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>209</v>
@@ -6693,13 +6693,13 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>32000</v>
+        <v>44000</v>
       </c>
       <c r="F65">
-        <v>31000</v>
+        <v>42000</v>
       </c>
       <c r="G65">
-        <v>250000</v>
+        <v>340000</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>210</v>
@@ -6749,13 +6749,13 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>33000</v>
+        <v>46000</v>
       </c>
       <c r="F66">
-        <v>32000</v>
+        <v>44000</v>
       </c>
       <c r="G66">
-        <v>260000</v>
+        <v>360000</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>209</v>
@@ -6805,13 +6805,13 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>34000</v>
+        <v>48000</v>
       </c>
       <c r="F67">
-        <v>33000</v>
+        <v>46000</v>
       </c>
       <c r="G67">
-        <v>270000</v>
+        <v>380000</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>210</v>
@@ -6861,13 +6861,13 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="F68">
-        <v>34000</v>
+        <v>48000</v>
       </c>
       <c r="G68">
-        <v>280000</v>
+        <v>400000</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>209</v>
@@ -6917,13 +6917,13 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>36000</v>
+        <v>52000</v>
       </c>
       <c r="F69">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="G69">
-        <v>290000</v>
+        <v>420000</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>210</v>
@@ -6973,13 +6973,13 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>37000</v>
+        <v>54000</v>
       </c>
       <c r="F70">
-        <v>36000</v>
+        <v>52000</v>
       </c>
       <c r="G70">
-        <v>300000</v>
+        <v>440000</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>209</v>
@@ -7029,13 +7029,13 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>38000</v>
+        <v>56000</v>
       </c>
       <c r="F71">
-        <v>37000</v>
+        <v>54000</v>
       </c>
       <c r="G71">
-        <v>310000</v>
+        <v>460000</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>210</v>
@@ -7085,13 +7085,13 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>39000</v>
+        <v>58000</v>
       </c>
       <c r="F72">
-        <v>38000</v>
+        <v>56000</v>
       </c>
       <c r="G72">
-        <v>320000</v>
+        <v>480000</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>209</v>
@@ -7141,13 +7141,13 @@
         <v>30</v>
       </c>
       <c r="E73">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="F73">
-        <v>39000</v>
+        <v>58000</v>
       </c>
       <c r="G73">
-        <v>330000</v>
+        <v>500000</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>210</v>
@@ -7197,13 +7197,13 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>41500</v>
+        <v>64000</v>
       </c>
       <c r="F74">
-        <v>41000</v>
+        <v>60000</v>
       </c>
       <c r="G74">
-        <v>345000</v>
+        <v>520000</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>210</v>
@@ -7253,13 +7253,13 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>43000</v>
+        <v>68000</v>
       </c>
       <c r="F75">
-        <v>42500</v>
+        <v>64000</v>
       </c>
       <c r="G75">
-        <v>360000</v>
+        <v>540000</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>209</v>
@@ -7309,13 +7309,13 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>44500</v>
+        <v>72000</v>
       </c>
       <c r="F76">
-        <v>44000</v>
+        <v>68000</v>
       </c>
       <c r="G76">
-        <v>375000</v>
+        <v>560000</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>210</v>
@@ -7365,13 +7365,13 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>46000</v>
+        <v>76000</v>
       </c>
       <c r="F77">
-        <v>45500</v>
+        <v>72000</v>
       </c>
       <c r="G77">
-        <v>390000</v>
+        <v>580000</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>209</v>
@@ -7421,13 +7421,13 @@
         <v>30</v>
       </c>
       <c r="E78">
-        <v>47500</v>
+        <v>80000</v>
       </c>
       <c r="F78">
-        <v>47000</v>
+        <v>76000</v>
       </c>
       <c r="G78">
-        <v>405000</v>
+        <v>600000</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>210</v>
@@ -7477,13 +7477,13 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>49000</v>
+        <v>84000</v>
       </c>
       <c r="F79">
-        <v>48500</v>
+        <v>80000</v>
       </c>
       <c r="G79">
-        <v>420000</v>
+        <v>620000</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>209</v>
@@ -7533,13 +7533,13 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>50500</v>
+        <v>88000</v>
       </c>
       <c r="F80">
-        <v>50000</v>
+        <v>84000</v>
       </c>
       <c r="G80">
-        <v>435000</v>
+        <v>640000</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>210</v>
@@ -7589,13 +7589,13 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>52000</v>
+        <v>92000</v>
       </c>
       <c r="F81">
-        <v>51500</v>
+        <v>88000</v>
       </c>
       <c r="G81">
-        <v>450000</v>
+        <v>660000</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>209</v>
@@ -7645,13 +7645,13 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>53500</v>
+        <v>96000</v>
       </c>
       <c r="F82">
-        <v>53000</v>
+        <v>92000</v>
       </c>
       <c r="G82">
-        <v>465000</v>
+        <v>680000</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>210</v>
@@ -7701,13 +7701,13 @@
         <v>30</v>
       </c>
       <c r="E83">
-        <v>55000</v>
+        <v>100000</v>
       </c>
       <c r="F83">
-        <v>54500</v>
+        <v>96000</v>
       </c>
       <c r="G83">
-        <v>480000</v>
+        <v>700000</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>209</v>
@@ -7757,13 +7757,13 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>56500</v>
+        <v>110000</v>
       </c>
       <c r="F84">
-        <v>56000</v>
+        <v>100000</v>
       </c>
       <c r="G84">
-        <v>495000</v>
+        <v>750000</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>210</v>
@@ -7813,13 +7813,13 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>58000</v>
+        <v>120000</v>
       </c>
       <c r="F85">
-        <v>57500</v>
+        <v>110000</v>
       </c>
       <c r="G85">
-        <v>510000</v>
+        <v>800000</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>209</v>
@@ -7869,13 +7869,13 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>59500</v>
+        <v>130000</v>
       </c>
       <c r="F86">
-        <v>59000</v>
+        <v>120000</v>
       </c>
       <c r="G86">
-        <v>525000</v>
+        <v>850000</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>210</v>
@@ -7925,13 +7925,13 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>61000</v>
+        <v>140000</v>
       </c>
       <c r="F87">
-        <v>60500</v>
+        <v>130000</v>
       </c>
       <c r="G87">
-        <v>540000</v>
+        <v>900000</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>209</v>
@@ -7981,13 +7981,13 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>62500</v>
+        <v>150000</v>
       </c>
       <c r="F88">
-        <v>62000</v>
+        <v>140000</v>
       </c>
       <c r="G88">
-        <v>555000</v>
+        <v>950000</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>210</v>
@@ -8037,13 +8037,13 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>64000</v>
+        <v>160000</v>
       </c>
       <c r="F89">
-        <v>63500</v>
+        <v>150000</v>
       </c>
       <c r="G89">
-        <v>570000</v>
+        <v>1000000</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>209</v>
@@ -8093,13 +8093,13 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>65500</v>
+        <v>170000</v>
       </c>
       <c r="F90">
-        <v>65000</v>
+        <v>160000</v>
       </c>
       <c r="G90">
-        <v>585000</v>
+        <v>1100000</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>210</v>
@@ -8149,13 +8149,13 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>67000</v>
+        <v>180000</v>
       </c>
       <c r="F91">
-        <v>66500</v>
+        <v>170000</v>
       </c>
       <c r="G91">
-        <v>600000</v>
+        <v>1200000</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>209</v>
@@ -8205,13 +8205,13 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>68500</v>
+        <v>190000</v>
       </c>
       <c r="F92">
-        <v>68000</v>
+        <v>180000</v>
       </c>
       <c r="G92">
-        <v>615000</v>
+        <v>1300000</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>210</v>
@@ -8261,13 +8261,13 @@
         <v>30</v>
       </c>
       <c r="E93">
-        <v>70000</v>
+        <v>200000</v>
       </c>
       <c r="F93">
-        <v>69500</v>
+        <v>190000</v>
       </c>
       <c r="G93">
-        <v>630000</v>
+        <v>1400000</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>209</v>

--- a/config/data/剧情战斗配置.xlsx
+++ b/config/data/剧情战斗配置.xlsx
@@ -3177,8 +3177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4061,10 +4061,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F18">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G18">
         <v>15000</v>
@@ -4117,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="E19">
+        <v>1400</v>
+      </c>
+      <c r="F19">
         <v>1200</v>
-      </c>
-      <c r="F19">
-        <v>1000</v>
       </c>
       <c r="G19">
         <v>16000</v>
@@ -4173,10 +4173,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="F20">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="G20">
         <v>17000</v>
@@ -4229,10 +4229,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="F21">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="G21">
         <v>18000</v>
@@ -4285,10 +4285,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="F22">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="G22">
         <v>19000</v>
@@ -4341,13 +4341,13 @@
         <v>30</v>
       </c>
       <c r="E23">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="F23">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="G23">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>210</v>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -4397,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F24">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="G24">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>209</v>
@@ -4453,13 +4453,13 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="F25">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G25">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>210</v>
@@ -4509,13 +4509,13 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="F26">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="G26">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>209</v>
@@ -4565,13 +4565,13 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>2900</v>
+        <v>4500</v>
       </c>
       <c r="F27">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G27">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>210</v>
@@ -4621,13 +4621,13 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="F28">
-        <v>2900</v>
+        <v>4500</v>
       </c>
       <c r="G28">
-        <v>31000</v>
+        <v>40000</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>209</v>
@@ -4677,13 +4677,13 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="F29">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="G29">
-        <v>33000</v>
+        <v>45000</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>210</v>
@@ -4733,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="F30">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="G30">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>209</v>
@@ -4789,13 +4789,13 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>4100</v>
+        <v>6500</v>
       </c>
       <c r="F31">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="G31">
-        <v>37000</v>
+        <v>55000</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>210</v>
@@ -4845,13 +4845,13 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>4400</v>
+        <v>7000</v>
       </c>
       <c r="F32">
-        <v>4100</v>
+        <v>6500</v>
       </c>
       <c r="G32">
-        <v>39000</v>
+        <v>60000</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>209</v>
@@ -4901,13 +4901,13 @@
         <v>30</v>
       </c>
       <c r="E33">
-        <v>4900</v>
+        <v>8000</v>
       </c>
       <c r="F33">
-        <v>4400</v>
+        <v>7000</v>
       </c>
       <c r="G33">
-        <v>42000</v>
+        <v>70000</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>210</v>
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -4957,13 +4957,13 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="F34">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="G34">
-        <v>45000</v>
+        <v>80000</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>209</v>
@@ -5013,13 +5013,13 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="F35">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="G35">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>210</v>
@@ -5069,13 +5069,13 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="F36">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="G36">
-        <v>55000</v>
+        <v>100000</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>209</v>
@@ -5125,13 +5125,13 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="F37">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="G37">
-        <v>60000</v>
+        <v>110000</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>210</v>
@@ -5181,13 +5181,13 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="F38">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="G38">
-        <v>65000</v>
+        <v>120000</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>209</v>
@@ -5237,13 +5237,13 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="F39">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="G39">
-        <v>70000</v>
+        <v>130000</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>210</v>
@@ -5293,13 +5293,13 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="F40">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="G40">
-        <v>75000</v>
+        <v>140000</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>209</v>
@@ -5349,13 +5349,13 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="F41">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="G41">
-        <v>80000</v>
+        <v>150000</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>210</v>
@@ -5405,13 +5405,13 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="F42">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="G42">
-        <v>85000</v>
+        <v>160000</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>209</v>
@@ -5461,13 +5461,13 @@
         <v>30</v>
       </c>
       <c r="E43">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="F43">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="G43">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>210</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -5517,13 +5517,13 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="F44">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="G44">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>209</v>
@@ -5573,13 +5573,13 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="F45">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="G45">
-        <v>110000</v>
+        <v>220000</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>210</v>
@@ -5629,13 +5629,13 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="F46">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="G46">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>209</v>
@@ -5685,13 +5685,13 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="F47">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="G47">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>210</v>
@@ -5741,13 +5741,13 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="F48">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="G48">
-        <v>140000</v>
+        <v>280000</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>209</v>
@@ -5797,13 +5797,13 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="F49">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="G49">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>210</v>
@@ -5853,13 +5853,13 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>17000</v>
+        <v>32000</v>
       </c>
       <c r="F50">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="G50">
-        <v>160000</v>
+        <v>320000</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>209</v>
@@ -5909,13 +5909,13 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>18000</v>
+        <v>34000</v>
       </c>
       <c r="F51">
-        <v>17000</v>
+        <v>32000</v>
       </c>
       <c r="G51">
-        <v>170000</v>
+        <v>340000</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>210</v>
@@ -5965,13 +5965,13 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>19000</v>
+        <v>36000</v>
       </c>
       <c r="F52">
-        <v>18000</v>
+        <v>34000</v>
       </c>
       <c r="G52">
-        <v>180000</v>
+        <v>360000</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>209</v>
@@ -6021,13 +6021,13 @@
         <v>30</v>
       </c>
       <c r="E53">
-        <v>21000</v>
+        <v>39000</v>
       </c>
       <c r="F53">
-        <v>19000</v>
+        <v>36000</v>
       </c>
       <c r="G53">
-        <v>190000</v>
+        <v>380000</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>210</v>
@@ -6054,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="P53">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -6077,13 +6077,13 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>22000</v>
+        <v>42000</v>
       </c>
       <c r="F54">
-        <v>20000</v>
+        <v>39000</v>
       </c>
       <c r="G54">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>209</v>
@@ -6133,13 +6133,13 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="F55">
-        <v>22000</v>
+        <v>42000</v>
       </c>
       <c r="G55">
-        <v>210000</v>
+        <v>420000</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>210</v>
@@ -6189,13 +6189,13 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>26000</v>
+        <v>48000</v>
       </c>
       <c r="F56">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="G56">
-        <v>220000</v>
+        <v>440000</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>209</v>
@@ -6245,13 +6245,13 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>28000</v>
+        <v>51000</v>
       </c>
       <c r="F57">
-        <v>26000</v>
+        <v>48000</v>
       </c>
       <c r="G57">
-        <v>230000</v>
+        <v>460000</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>210</v>
@@ -6301,13 +6301,13 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>30000</v>
+        <v>54000</v>
       </c>
       <c r="F58">
-        <v>28000</v>
+        <v>51000</v>
       </c>
       <c r="G58">
-        <v>240000</v>
+        <v>480000</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>209</v>
@@ -6357,13 +6357,13 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>32000</v>
+        <v>57000</v>
       </c>
       <c r="F59">
-        <v>30000</v>
+        <v>54000</v>
       </c>
       <c r="G59">
-        <v>250000</v>
+        <v>500000</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>210</v>
@@ -6413,13 +6413,13 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>34000</v>
+        <v>60000</v>
       </c>
       <c r="F60">
-        <v>32000</v>
+        <v>57000</v>
       </c>
       <c r="G60">
-        <v>260000</v>
+        <v>520000</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>209</v>
@@ -6469,13 +6469,13 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>36000</v>
+        <v>63000</v>
       </c>
       <c r="F61">
-        <v>34000</v>
+        <v>60000</v>
       </c>
       <c r="G61">
-        <v>270000</v>
+        <v>540000</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>210</v>
@@ -6525,13 +6525,13 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>38000</v>
+        <v>66000</v>
       </c>
       <c r="F62">
-        <v>36000</v>
+        <v>63000</v>
       </c>
       <c r="G62">
-        <v>280000</v>
+        <v>560000</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>209</v>
@@ -6581,13 +6581,13 @@
         <v>30</v>
       </c>
       <c r="E63">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="F63">
-        <v>38000</v>
+        <v>66000</v>
       </c>
       <c r="G63">
-        <v>300000</v>
+        <v>590000</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>210</v>
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="P63">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -6637,13 +6637,13 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>42000</v>
+        <v>75000</v>
       </c>
       <c r="F64">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="G64">
-        <v>320000</v>
+        <v>620000</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>209</v>
@@ -6693,13 +6693,13 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>44000</v>
+        <v>80000</v>
       </c>
       <c r="F65">
-        <v>42000</v>
+        <v>75000</v>
       </c>
       <c r="G65">
-        <v>340000</v>
+        <v>650000</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>210</v>
@@ -6749,13 +6749,13 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>46000</v>
+        <v>85000</v>
       </c>
       <c r="F66">
-        <v>44000</v>
+        <v>80000</v>
       </c>
       <c r="G66">
-        <v>360000</v>
+        <v>680000</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>209</v>
@@ -6805,13 +6805,13 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>48000</v>
+        <v>90000</v>
       </c>
       <c r="F67">
-        <v>46000</v>
+        <v>85000</v>
       </c>
       <c r="G67">
-        <v>380000</v>
+        <v>710000</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>210</v>
@@ -6861,13 +6861,13 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>50000</v>
+        <v>95000</v>
       </c>
       <c r="F68">
-        <v>48000</v>
+        <v>90000</v>
       </c>
       <c r="G68">
-        <v>400000</v>
+        <v>740000</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>209</v>
@@ -6917,13 +6917,13 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>52000</v>
+        <v>100000</v>
       </c>
       <c r="F69">
-        <v>50000</v>
+        <v>95000</v>
       </c>
       <c r="G69">
-        <v>420000</v>
+        <v>770000</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>210</v>
@@ -6973,13 +6973,13 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>54000</v>
+        <v>105000</v>
       </c>
       <c r="F70">
-        <v>52000</v>
+        <v>100000</v>
       </c>
       <c r="G70">
-        <v>440000</v>
+        <v>800000</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>209</v>
@@ -7029,13 +7029,13 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>56000</v>
+        <v>110000</v>
       </c>
       <c r="F71">
-        <v>54000</v>
+        <v>105000</v>
       </c>
       <c r="G71">
-        <v>460000</v>
+        <v>830000</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>210</v>
@@ -7085,13 +7085,13 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>58000</v>
+        <v>115000</v>
       </c>
       <c r="F72">
-        <v>56000</v>
+        <v>110000</v>
       </c>
       <c r="G72">
-        <v>480000</v>
+        <v>860000</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>209</v>
@@ -7141,13 +7141,13 @@
         <v>30</v>
       </c>
       <c r="E73">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="F73">
-        <v>58000</v>
+        <v>115000</v>
       </c>
       <c r="G73">
-        <v>500000</v>
+        <v>900000</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>210</v>
@@ -7174,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="P73">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -7197,13 +7197,13 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>64000</v>
+        <v>130000</v>
       </c>
       <c r="F74">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="G74">
-        <v>520000</v>
+        <v>950000</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>210</v>
@@ -7253,13 +7253,13 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>68000</v>
+        <v>140000</v>
       </c>
       <c r="F75">
-        <v>64000</v>
+        <v>130000</v>
       </c>
       <c r="G75">
-        <v>540000</v>
+        <v>1000000</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>209</v>
@@ -7309,13 +7309,13 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>72000</v>
+        <v>150000</v>
       </c>
       <c r="F76">
-        <v>68000</v>
+        <v>140000</v>
       </c>
       <c r="G76">
-        <v>560000</v>
+        <v>1050000</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>210</v>
@@ -7365,13 +7365,13 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>76000</v>
+        <v>160000</v>
       </c>
       <c r="F77">
-        <v>72000</v>
+        <v>150000</v>
       </c>
       <c r="G77">
-        <v>580000</v>
+        <v>1100000</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>209</v>
@@ -7421,13 +7421,13 @@
         <v>30</v>
       </c>
       <c r="E78">
-        <v>80000</v>
+        <v>170000</v>
       </c>
       <c r="F78">
-        <v>76000</v>
+        <v>160000</v>
       </c>
       <c r="G78">
-        <v>600000</v>
+        <v>1150000</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>210</v>
@@ -7477,13 +7477,13 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>84000</v>
+        <v>180000</v>
       </c>
       <c r="F79">
-        <v>80000</v>
+        <v>170000</v>
       </c>
       <c r="G79">
-        <v>620000</v>
+        <v>1200000</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>209</v>
@@ -7533,13 +7533,13 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>88000</v>
+        <v>190000</v>
       </c>
       <c r="F80">
-        <v>84000</v>
+        <v>180000</v>
       </c>
       <c r="G80">
-        <v>640000</v>
+        <v>1250000</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>210</v>
@@ -7589,13 +7589,13 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>92000</v>
+        <v>200000</v>
       </c>
       <c r="F81">
-        <v>88000</v>
+        <v>190000</v>
       </c>
       <c r="G81">
-        <v>660000</v>
+        <v>1300000</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>209</v>
@@ -7645,13 +7645,13 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>96000</v>
+        <v>210000</v>
       </c>
       <c r="F82">
-        <v>92000</v>
+        <v>200000</v>
       </c>
       <c r="G82">
-        <v>680000</v>
+        <v>1350000</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>210</v>
@@ -7701,13 +7701,13 @@
         <v>30</v>
       </c>
       <c r="E83">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="F83">
-        <v>96000</v>
+        <v>210000</v>
       </c>
       <c r="G83">
-        <v>700000</v>
+        <v>1400000</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>209</v>
@@ -7734,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -7757,13 +7757,13 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>110000</v>
+        <v>240000</v>
       </c>
       <c r="F84">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="G84">
-        <v>750000</v>
+        <v>1500000</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>210</v>
@@ -7813,13 +7813,13 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>120000</v>
+        <v>260000</v>
       </c>
       <c r="F85">
-        <v>110000</v>
+        <v>240000</v>
       </c>
       <c r="G85">
-        <v>800000</v>
+        <v>1600000</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>209</v>
@@ -7869,13 +7869,13 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>130000</v>
+        <v>280000</v>
       </c>
       <c r="F86">
-        <v>120000</v>
+        <v>260000</v>
       </c>
       <c r="G86">
-        <v>850000</v>
+        <v>1700000</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>210</v>
@@ -7925,13 +7925,13 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>140000</v>
+        <v>300000</v>
       </c>
       <c r="F87">
-        <v>130000</v>
+        <v>280000</v>
       </c>
       <c r="G87">
-        <v>900000</v>
+        <v>1800000</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>209</v>
@@ -7981,13 +7981,13 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>150000</v>
+        <v>320000</v>
       </c>
       <c r="F88">
-        <v>140000</v>
+        <v>300000</v>
       </c>
       <c r="G88">
-        <v>950000</v>
+        <v>1900000</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>210</v>
@@ -8037,13 +8037,13 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>160000</v>
+        <v>340000</v>
       </c>
       <c r="F89">
-        <v>150000</v>
+        <v>320000</v>
       </c>
       <c r="G89">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>209</v>
@@ -8093,13 +8093,13 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>170000</v>
+        <v>360000</v>
       </c>
       <c r="F90">
-        <v>160000</v>
+        <v>340000</v>
       </c>
       <c r="G90">
-        <v>1100000</v>
+        <v>2100000</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>210</v>
@@ -8149,13 +8149,13 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>180000</v>
+        <v>380000</v>
       </c>
       <c r="F91">
-        <v>170000</v>
+        <v>360000</v>
       </c>
       <c r="G91">
-        <v>1200000</v>
+        <v>2200000</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>209</v>
@@ -8205,13 +8205,13 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>190000</v>
+        <v>400000</v>
       </c>
       <c r="F92">
-        <v>180000</v>
+        <v>380000</v>
       </c>
       <c r="G92">
-        <v>1300000</v>
+        <v>2300000</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>210</v>
@@ -8261,13 +8261,13 @@
         <v>30</v>
       </c>
       <c r="E93">
-        <v>200000</v>
+        <v>420000</v>
       </c>
       <c r="F93">
-        <v>190000</v>
+        <v>400000</v>
       </c>
       <c r="G93">
-        <v>1400000</v>
+        <v>2400000</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>209</v>
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="P93">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q93">
         <v>0</v>

--- a/config/data/剧情战斗配置.xlsx
+++ b/config/data/剧情战斗配置.xlsx
@@ -3177,8 +3177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3837,13 +3837,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F14">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G14">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>209</v>
@@ -3893,13 +3893,13 @@
         <v>0</v>
       </c>
       <c r="E15">
+        <v>900</v>
+      </c>
+      <c r="F15">
         <v>800</v>
       </c>
-      <c r="F15">
-        <v>600</v>
-      </c>
       <c r="G15">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>210</v>
@@ -3949,13 +3949,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F16">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G16">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>209</v>
@@ -4005,13 +4005,13 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F17">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G17">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>210</v>
@@ -4061,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="F18">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G18">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>209</v>
@@ -4117,13 +4117,13 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="F19">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="G19">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>210</v>
@@ -4173,13 +4173,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="F20">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="G20">
-        <v>17000</v>
+        <v>25500</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>209</v>
@@ -4229,13 +4229,13 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="F21">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="G21">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>210</v>
@@ -4285,13 +4285,13 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F22">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="G22">
-        <v>19000</v>
+        <v>28500</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>209</v>
@@ -4341,13 +4341,13 @@
         <v>30</v>
       </c>
       <c r="E23">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="F23">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G23">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>210</v>
@@ -4397,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>3000</v>
+        <v>4250</v>
       </c>
       <c r="F24">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="G24">
-        <v>25000</v>
+        <v>37500</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>209</v>
@@ -4453,13 +4453,13 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="F25">
-        <v>3000</v>
+        <v>4750</v>
       </c>
       <c r="G25">
-        <v>28000</v>
+        <v>42000</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>210</v>
@@ -4509,13 +4509,13 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>4000</v>
+        <v>5750</v>
       </c>
       <c r="F26">
-        <v>3500</v>
+        <v>5750</v>
       </c>
       <c r="G26">
-        <v>31000</v>
+        <v>46500</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>209</v>
@@ -4565,13 +4565,13 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>4500</v>
+        <v>6250</v>
       </c>
       <c r="F27">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="G27">
-        <v>34000</v>
+        <v>51000</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>210</v>
@@ -4621,13 +4621,13 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="F28">
-        <v>4500</v>
+        <v>7250</v>
       </c>
       <c r="G28">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>209</v>
@@ -4677,13 +4677,13 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="F29">
-        <v>5000</v>
+        <v>7750</v>
       </c>
       <c r="G29">
-        <v>45000</v>
+        <v>67500</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>210</v>
@@ -4733,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F30">
-        <v>5500</v>
+        <v>8250</v>
       </c>
       <c r="G30">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>209</v>
@@ -4789,13 +4789,13 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="F31">
-        <v>6000</v>
+        <v>9250</v>
       </c>
       <c r="G31">
-        <v>55000</v>
+        <v>82500</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>210</v>
@@ -4845,13 +4845,13 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="F32">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="G32">
-        <v>60000</v>
+        <v>90000</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>209</v>
@@ -4901,13 +4901,13 @@
         <v>30</v>
       </c>
       <c r="E33">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="F33">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="G33">
-        <v>70000</v>
+        <v>105000</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>210</v>
@@ -4957,13 +4957,13 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="F34">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="G34">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>209</v>
@@ -5013,13 +5013,13 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F35">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="G35">
-        <v>90000</v>
+        <v>135000</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>210</v>
@@ -5069,13 +5069,13 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="F36">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G36">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>209</v>
@@ -5125,13 +5125,13 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="F37">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="G37">
-        <v>110000</v>
+        <v>165000</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>210</v>
@@ -5181,13 +5181,13 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>13000</v>
+        <v>19500</v>
       </c>
       <c r="F38">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="G38">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>209</v>
@@ -5237,13 +5237,13 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="F39">
-        <v>13000</v>
+        <v>19500</v>
       </c>
       <c r="G39">
-        <v>130000</v>
+        <v>195000</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>210</v>
@@ -5293,13 +5293,13 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="F40">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="G40">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>209</v>
@@ -5349,13 +5349,13 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="F41">
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="G41">
-        <v>150000</v>
+        <v>225000</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>210</v>
@@ -5405,13 +5405,13 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>17000</v>
+        <v>25500</v>
       </c>
       <c r="F42">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="G42">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>209</v>
@@ -5461,13 +5461,13 @@
         <v>30</v>
       </c>
       <c r="E43">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="F43">
-        <v>17000</v>
+        <v>25500</v>
       </c>
       <c r="G43">
-        <v>180000</v>
+        <v>270000</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>210</v>
@@ -5517,13 +5517,13 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F44">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="G44">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>209</v>
@@ -5573,13 +5573,13 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="F45">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G45">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>210</v>
@@ -5629,13 +5629,13 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="F46">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="G46">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>209</v>
@@ -5685,13 +5685,13 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>26000</v>
+        <v>39000</v>
       </c>
       <c r="F47">
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="G47">
-        <v>260000</v>
+        <v>390000</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>210</v>
@@ -5741,13 +5741,13 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>28000</v>
+        <v>42000</v>
       </c>
       <c r="F48">
-        <v>26000</v>
+        <v>39000</v>
       </c>
       <c r="G48">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>209</v>
@@ -5797,13 +5797,13 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="F49">
-        <v>28000</v>
+        <v>42000</v>
       </c>
       <c r="G49">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>210</v>
@@ -5853,13 +5853,13 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="F50">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="G50">
-        <v>320000</v>
+        <v>480000</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>209</v>
@@ -5909,13 +5909,13 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>34000</v>
+        <v>51000</v>
       </c>
       <c r="F51">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G51">
-        <v>340000</v>
+        <v>510000</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>210</v>
@@ -5965,13 +5965,13 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>36000</v>
+        <v>54000</v>
       </c>
       <c r="F52">
-        <v>34000</v>
+        <v>51000</v>
       </c>
       <c r="G52">
-        <v>360000</v>
+        <v>540000</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>209</v>
@@ -6021,13 +6021,13 @@
         <v>30</v>
       </c>
       <c r="E53">
-        <v>39000</v>
+        <v>58500</v>
       </c>
       <c r="F53">
-        <v>36000</v>
+        <v>54000</v>
       </c>
       <c r="G53">
-        <v>380000</v>
+        <v>570000</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>210</v>
@@ -6077,13 +6077,13 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>42000</v>
+        <v>63000</v>
       </c>
       <c r="F54">
-        <v>39000</v>
+        <v>58500</v>
       </c>
       <c r="G54">
-        <v>400000</v>
+        <v>600000</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>209</v>
@@ -6133,13 +6133,13 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>45000</v>
+        <v>67500</v>
       </c>
       <c r="F55">
-        <v>42000</v>
+        <v>63000</v>
       </c>
       <c r="G55">
-        <v>420000</v>
+        <v>630000</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>210</v>
@@ -6189,13 +6189,13 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>48000</v>
+        <v>72000</v>
       </c>
       <c r="F56">
-        <v>45000</v>
+        <v>67500</v>
       </c>
       <c r="G56">
-        <v>440000</v>
+        <v>660000</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>209</v>
@@ -6245,13 +6245,13 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>51000</v>
+        <v>76500</v>
       </c>
       <c r="F57">
-        <v>48000</v>
+        <v>72000</v>
       </c>
       <c r="G57">
-        <v>460000</v>
+        <v>690000</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>210</v>
@@ -6301,13 +6301,13 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>54000</v>
+        <v>81000</v>
       </c>
       <c r="F58">
-        <v>51000</v>
+        <v>76500</v>
       </c>
       <c r="G58">
-        <v>480000</v>
+        <v>720000</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>209</v>
@@ -6357,13 +6357,13 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>57000</v>
+        <v>85500</v>
       </c>
       <c r="F59">
-        <v>54000</v>
+        <v>81000</v>
       </c>
       <c r="G59">
-        <v>500000</v>
+        <v>750000</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>210</v>
@@ -6413,13 +6413,13 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>60000</v>
+        <v>90000</v>
       </c>
       <c r="F60">
-        <v>57000</v>
+        <v>85500</v>
       </c>
       <c r="G60">
-        <v>520000</v>
+        <v>780000</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>209</v>
@@ -6469,13 +6469,13 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>63000</v>
+        <v>94500</v>
       </c>
       <c r="F61">
-        <v>60000</v>
+        <v>90000</v>
       </c>
       <c r="G61">
-        <v>540000</v>
+        <v>810000</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>210</v>
@@ -6525,13 +6525,13 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>66000</v>
+        <v>99000</v>
       </c>
       <c r="F62">
-        <v>63000</v>
+        <v>94500</v>
       </c>
       <c r="G62">
-        <v>560000</v>
+        <v>840000</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>209</v>
@@ -6581,13 +6581,13 @@
         <v>30</v>
       </c>
       <c r="E63">
-        <v>70000</v>
+        <v>105000</v>
       </c>
       <c r="F63">
-        <v>66000</v>
+        <v>99000</v>
       </c>
       <c r="G63">
-        <v>590000</v>
+        <v>885000</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>210</v>
@@ -6637,13 +6637,13 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>75000</v>
+        <v>112500</v>
       </c>
       <c r="F64">
-        <v>70000</v>
+        <v>105000</v>
       </c>
       <c r="G64">
-        <v>620000</v>
+        <v>930000</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>209</v>
@@ -6693,13 +6693,13 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="F65">
-        <v>75000</v>
+        <v>112500</v>
       </c>
       <c r="G65">
-        <v>650000</v>
+        <v>975000</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>210</v>
@@ -6749,13 +6749,13 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>85000</v>
+        <v>127500</v>
       </c>
       <c r="F66">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="G66">
-        <v>680000</v>
+        <v>1020000</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>209</v>
@@ -6805,13 +6805,13 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>90000</v>
+        <v>135000</v>
       </c>
       <c r="F67">
-        <v>85000</v>
+        <v>127500</v>
       </c>
       <c r="G67">
-        <v>710000</v>
+        <v>1065000</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>210</v>
@@ -6861,13 +6861,13 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>95000</v>
+        <v>142500</v>
       </c>
       <c r="F68">
-        <v>90000</v>
+        <v>135000</v>
       </c>
       <c r="G68">
-        <v>740000</v>
+        <v>1110000</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>209</v>
@@ -6917,13 +6917,13 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="F69">
-        <v>95000</v>
+        <v>142500</v>
       </c>
       <c r="G69">
-        <v>770000</v>
+        <v>1155000</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>210</v>
@@ -6973,13 +6973,13 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>105000</v>
+        <v>157500</v>
       </c>
       <c r="F70">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="G70">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>209</v>
@@ -7029,13 +7029,13 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>110000</v>
+        <v>165000</v>
       </c>
       <c r="F71">
-        <v>105000</v>
+        <v>157500</v>
       </c>
       <c r="G71">
-        <v>830000</v>
+        <v>1245000</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>210</v>
@@ -7085,13 +7085,13 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>115000</v>
+        <v>172500</v>
       </c>
       <c r="F72">
-        <v>110000</v>
+        <v>165000</v>
       </c>
       <c r="G72">
-        <v>860000</v>
+        <v>1290000</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>209</v>
@@ -7141,13 +7141,13 @@
         <v>30</v>
       </c>
       <c r="E73">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="F73">
-        <v>115000</v>
+        <v>172500</v>
       </c>
       <c r="G73">
-        <v>900000</v>
+        <v>1350000</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>210</v>
@@ -7197,13 +7197,13 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>130000</v>
+        <v>195000</v>
       </c>
       <c r="F74">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="G74">
-        <v>950000</v>
+        <v>1425000</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>210</v>
@@ -7253,13 +7253,13 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="F75">
-        <v>130000</v>
+        <v>195000</v>
       </c>
       <c r="G75">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>209</v>
@@ -7309,13 +7309,13 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>150000</v>
+        <v>225000</v>
       </c>
       <c r="F76">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="G76">
-        <v>1050000</v>
+        <v>1575000</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>210</v>
@@ -7365,13 +7365,13 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="F77">
-        <v>150000</v>
+        <v>225000</v>
       </c>
       <c r="G77">
-        <v>1100000</v>
+        <v>1650000</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>209</v>
@@ -7421,13 +7421,13 @@
         <v>30</v>
       </c>
       <c r="E78">
-        <v>170000</v>
+        <v>255000</v>
       </c>
       <c r="F78">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="G78">
-        <v>1150000</v>
+        <v>1725000</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>210</v>
@@ -7477,13 +7477,13 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>180000</v>
+        <v>270000</v>
       </c>
       <c r="F79">
-        <v>170000</v>
+        <v>255000</v>
       </c>
       <c r="G79">
-        <v>1200000</v>
+        <v>1800000</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>209</v>
@@ -7533,13 +7533,13 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>190000</v>
+        <v>285000</v>
       </c>
       <c r="F80">
-        <v>180000</v>
+        <v>270000</v>
       </c>
       <c r="G80">
-        <v>1250000</v>
+        <v>1875000</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>210</v>
@@ -7589,13 +7589,13 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="F81">
-        <v>190000</v>
+        <v>285000</v>
       </c>
       <c r="G81">
-        <v>1300000</v>
+        <v>1950000</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>209</v>
@@ -7645,13 +7645,13 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>210000</v>
+        <v>315000</v>
       </c>
       <c r="F82">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="G82">
-        <v>1350000</v>
+        <v>2025000</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>210</v>
@@ -7701,13 +7701,13 @@
         <v>30</v>
       </c>
       <c r="E83">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="F83">
-        <v>210000</v>
+        <v>315000</v>
       </c>
       <c r="G83">
-        <v>1400000</v>
+        <v>2100000</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>209</v>
@@ -7757,13 +7757,13 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="F84">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="G84">
-        <v>1500000</v>
+        <v>2250000</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>210</v>
@@ -7813,13 +7813,13 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>260000</v>
+        <v>390000</v>
       </c>
       <c r="F85">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="G85">
-        <v>1600000</v>
+        <v>2400000</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>209</v>
@@ -7869,13 +7869,13 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="F86">
-        <v>260000</v>
+        <v>390000</v>
       </c>
       <c r="G86">
-        <v>1700000</v>
+        <v>2550000</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>210</v>
@@ -7925,13 +7925,13 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="F87">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="G87">
-        <v>1800000</v>
+        <v>2700000</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>209</v>
@@ -7981,13 +7981,13 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>320000</v>
+        <v>480000</v>
       </c>
       <c r="F88">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="G88">
-        <v>1900000</v>
+        <v>2850000</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>210</v>
@@ -8037,13 +8037,13 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>340000</v>
+        <v>510000</v>
       </c>
       <c r="F89">
-        <v>320000</v>
+        <v>480000</v>
       </c>
       <c r="G89">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>209</v>
@@ -8093,13 +8093,13 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>360000</v>
+        <v>540000</v>
       </c>
       <c r="F90">
-        <v>340000</v>
+        <v>510000</v>
       </c>
       <c r="G90">
-        <v>2100000</v>
+        <v>3150000</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>210</v>
@@ -8149,13 +8149,13 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>380000</v>
+        <v>570000</v>
       </c>
       <c r="F91">
-        <v>360000</v>
+        <v>540000</v>
       </c>
       <c r="G91">
-        <v>2200000</v>
+        <v>3300000</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>209</v>
@@ -8205,13 +8205,13 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>400000</v>
+        <v>600000</v>
       </c>
       <c r="F92">
-        <v>380000</v>
+        <v>570000</v>
       </c>
       <c r="G92">
-        <v>2300000</v>
+        <v>3450000</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>210</v>
@@ -8261,13 +8261,13 @@
         <v>30</v>
       </c>
       <c r="E93">
-        <v>420000</v>
+        <v>630000</v>
       </c>
       <c r="F93">
-        <v>400000</v>
+        <v>600000</v>
       </c>
       <c r="G93">
-        <v>2400000</v>
+        <v>3600000</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>209</v>
